--- a/data/df_eu.xlsx
+++ b/data/df_eu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xinyi_grad\mycode\CCpred\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyi/Documents/MyFiles/myProject/CCpred/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5645919-2438-440A-A07D-5AAEB0BAA728}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E6D719-5C62-0241-8D78-3B7573DF0D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,13 +63,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -81,7 +81,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -127,10 +127,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,16 +433,16 @@
   <dimension ref="A1:L1075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <pane ySplit="1" topLeftCell="A1053" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1060" sqref="L1060"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>43290</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0.85089999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>43291</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0.85060000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>43293</v>
       </c>
@@ -594,7 +594,7 @@
         <v>0.85640000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>43294</v>
       </c>
@@ -632,7 +632,7 @@
         <v>0.85719999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>43297</v>
       </c>
@@ -670,7 +670,7 @@
         <v>0.85619999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>43298</v>
       </c>
@@ -708,7 +708,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>43299</v>
       </c>
@@ -746,7 +746,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>43299</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>43300</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0.85870000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>43301</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>43304</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0.85160000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>43305</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0.85509999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>43307</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>43308</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0.8589</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>43311</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.85760000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>43312</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0.85419999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>43313</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>0.85550000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>43314</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0.85719999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>43315</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0.86309999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>43318</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0.8649</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>43319</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0.86519999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>43321</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0.86129999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>43322</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0.86780000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>43325</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0.87760000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>43326</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>43328</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0.88149999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>43329</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0.87939999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>43332</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0.87429999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>43333</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0.87019999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>43335</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0.86319999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>43336</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.86629999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>43340</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0.85589999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>43341</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0.85529999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>43342</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>43343</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0.85729999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>43346</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>43347</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0.8609</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>43350</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.86060000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>43353</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>43354</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0.86240000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>43355</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0.86240000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>43355</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>0.86240000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>43356</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0.8599</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>43357</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0.85529999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>43360</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0.8599</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>43361</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>43363</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0.85660000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>43367</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>43368</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0.8508</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>43369</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>0.85009999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>43370</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0.85119999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>43371</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0.85929999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="2">
         <v>43374</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0.86170000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="2">
         <v>43375</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0.86370000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="2">
         <v>43377</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0.87139999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>43378</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0.86819999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="2">
         <v>43381</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0.8679</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="2">
         <v>43382</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>43383</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>43383</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="2">
         <v>43384</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="2">
         <v>43385</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0.86280000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>43388</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0.86570000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>43389</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0.86329999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>43391</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>43392</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0.87260000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="2">
         <v>43395</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>0.86880000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="2">
         <v>43396</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>43397</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0.87160000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="2">
         <v>43398</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0.87729999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="2">
         <v>43399</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.87890000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>43402</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0.87729999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="2">
         <v>43403</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>43405</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0.88370000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>43406</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0.87690000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="2">
         <v>43409</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0.87739999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="2">
         <v>43410</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0.87619999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="2">
         <v>43411</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0.87419999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="2">
         <v>43412</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>0.87460000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>43413</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0.87960000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>43416</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="2">
         <v>43417</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0.89019999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="2">
         <v>43419</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="2">
         <v>43423</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0.87609999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" s="2">
         <v>43424</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87" s="2">
         <v>43425</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88" s="2">
         <v>43425</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89" s="2">
         <v>43426</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0.87809999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90" s="2">
         <v>43430</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91" s="2">
         <v>43431</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0.88239999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="A92" s="2">
         <v>43433</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0.87960000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="A93" s="2">
         <v>43437</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0.88170000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94" s="2">
         <v>43438</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0.88070000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12">
       <c r="A95" s="2">
         <v>43439</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0.88160000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12">
       <c r="A96" s="2">
         <v>43440</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0.88109999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12">
       <c r="A97" s="2">
         <v>43444</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0.87709999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12">
       <c r="A98" s="2">
         <v>43445</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>0.88060000000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12">
       <c r="A99" s="2">
         <v>43447</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0.87919999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12">
       <c r="A100" s="2">
         <v>43451</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12">
       <c r="A101" s="2">
         <v>43472</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0.87639999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12">
       <c r="A102" s="2">
         <v>43473</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0.87109999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12">
       <c r="A103" s="2">
         <v>43475</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>0.86539999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12">
       <c r="A104" s="2">
         <v>43479</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0.87260000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12">
       <c r="A105" s="2">
         <v>43480</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0.87160000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12">
       <c r="A106" s="2">
         <v>43481</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0.87590000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12">
       <c r="A107" s="2">
         <v>43481</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0.87590000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12">
       <c r="A108" s="2">
         <v>43482</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0.87729999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12">
       <c r="A109" s="2">
         <v>43486</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0.87980000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12">
       <c r="A110" s="2">
         <v>43487</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>0.87960000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12">
       <c r="A111" s="2">
         <v>43489</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>0.87809999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12">
       <c r="A112" s="2">
         <v>43493</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>0.87619999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12">
       <c r="A113" s="2">
         <v>43494</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12">
       <c r="A114" s="2">
         <v>43495</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0.87450000000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12">
       <c r="A115" s="2">
         <v>43496</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0.87050000000000005</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12">
       <c r="A116" s="2">
         <v>43497</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>0.87339999999999995</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12">
       <c r="A117" s="2">
         <v>43500</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12">
       <c r="A118" s="2">
         <v>43501</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0.87439999999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12">
       <c r="A119" s="2">
         <v>43503</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0.87980000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12">
       <c r="A120" s="2">
         <v>43504</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0.88190000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12">
       <c r="A121" s="2">
         <v>43507</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0.8831</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12">
       <c r="A122" s="2">
         <v>43508</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>0.88660000000000005</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12">
       <c r="A123" s="2">
         <v>43509</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0.88229999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12">
       <c r="A124" s="2">
         <v>43510</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0.88770000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12">
       <c r="A125" s="2">
         <v>43511</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0.88529999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12">
       <c r="A126" s="2">
         <v>43514</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0.8851</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12">
       <c r="A127" s="2">
         <v>43515</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12">
       <c r="A128" s="2">
         <v>43517</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>0.88129999999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12">
       <c r="A129" s="2">
         <v>43518</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0.88160000000000005</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12">
       <c r="A130" s="2">
         <v>43521</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0.88170000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12">
       <c r="A131" s="2">
         <v>43522</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.87970000000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12">
       <c r="A132" s="2">
         <v>43523</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>0.87770000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12">
       <c r="A133" s="2">
         <v>43524</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0.87870000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12">
       <c r="A134" s="2">
         <v>43525</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>0.87919999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12">
       <c r="A135" s="2">
         <v>43528</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0.87909999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12">
       <c r="A136" s="2">
         <v>43529</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12">
       <c r="A137" s="2">
         <v>43531</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12">
       <c r="A138" s="2">
         <v>43532</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12">
       <c r="A139" s="2">
         <v>43535</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>0.89029999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12">
       <c r="A140" s="2">
         <v>43536</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>0.88819999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12">
       <c r="A141" s="2">
         <v>43537</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12">
       <c r="A142" s="2">
         <v>43537</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12">
       <c r="A143" s="2">
         <v>43538</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>0.88249999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12">
       <c r="A144" s="2">
         <v>43539</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>0.88429999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12">
       <c r="A145" s="2">
         <v>43542</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0.88339999999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12">
       <c r="A146" s="2">
         <v>43543</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0.8821</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12">
       <c r="A147" s="2">
         <v>43545</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0.87509999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12">
       <c r="A148" s="2">
         <v>43546</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>0.87909999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12">
       <c r="A149" s="2">
         <v>43549</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0.88529999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12">
       <c r="A150" s="2">
         <v>43550</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>0.88370000000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12">
       <c r="A151" s="2">
         <v>43551</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>0.88690000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12">
       <c r="A152" s="2">
         <v>43552</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>0.88880000000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12">
       <c r="A153" s="2">
         <v>43553</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>0.89049999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12">
       <c r="A154" s="2">
         <v>43556</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12">
       <c r="A155" s="2">
         <v>43557</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>0.89239999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12">
       <c r="A156" s="2">
         <v>43559</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>0.8891</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12">
       <c r="A157" s="2">
         <v>43560</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0.89080000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12">
       <c r="A158" s="2">
         <v>43563</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>0.89129999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12">
       <c r="A159" s="2">
         <v>43564</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0.88839999999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12">
       <c r="A160" s="2">
         <v>43565</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>0.88749999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12">
       <c r="A161" s="2">
         <v>43566</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>0.88680000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12">
       <c r="A162" s="2">
         <v>43567</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12">
       <c r="A163" s="2">
         <v>43570</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0.88460000000000005</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12">
       <c r="A164" s="2">
         <v>43571</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0.88460000000000005</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12">
       <c r="A165" s="2">
         <v>43573</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0.88519999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12">
       <c r="A166" s="2">
         <v>43578</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>0.88819999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12">
       <c r="A167" s="2">
         <v>43579</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>0.89090000000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12">
       <c r="A168" s="2">
         <v>43580</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>0.89659999999999995</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12">
       <c r="A169" s="2">
         <v>43581</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12">
       <c r="A170" s="2">
         <v>43584</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>0.89680000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12">
       <c r="A171" s="2">
         <v>43585</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12">
       <c r="A172" s="2">
         <v>43587</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0.89280000000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12">
       <c r="A173" s="2">
         <v>43588</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12">
       <c r="A174" s="2">
         <v>43592</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0.89270000000000005</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12">
       <c r="A175" s="2">
         <v>43593</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>0.89359999999999995</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12">
       <c r="A176" s="2">
         <v>43593</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>0.89359999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12">
       <c r="A177" s="2">
         <v>43594</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12">
       <c r="A178" s="2">
         <v>43595</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>0.8911</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12">
       <c r="A179" s="2">
         <v>43598</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12">
       <c r="A180" s="2">
         <v>43599</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>0.89029999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12">
       <c r="A181" s="2">
         <v>43601</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0.89229999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12">
       <c r="A182" s="2">
         <v>43602</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12">
       <c r="A183" s="2">
         <v>43605</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0.89559999999999995</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12">
       <c r="A184" s="2">
         <v>43606</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>0.89539999999999997</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12">
       <c r="A185" s="2">
         <v>43607</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>0.89573333333333327</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12">
       <c r="A186" s="2">
         <v>43607</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>0.89606666666666668</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12">
       <c r="A187" s="2">
         <v>43608</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>0.89639999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12">
       <c r="A188" s="2">
         <v>43609</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>0.89410000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12">
       <c r="A189" s="2">
         <v>43613</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>0.89339999999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12">
       <c r="A190" s="2">
         <v>43619</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>0.89490000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12">
       <c r="A191" s="2">
         <v>43620</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>0.88919999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12">
       <c r="A192" s="2">
         <v>43621</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0.88859999999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12">
       <c r="A193" s="2">
         <v>43622</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>0.89059999999999995</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12">
       <c r="A194" s="2">
         <v>43623</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>0.88680000000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12">
       <c r="A195" s="2">
         <v>43627</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>0.88349999999999995</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12">
       <c r="A196" s="2">
         <v>43629</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>0.88529999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12">
       <c r="A197" s="2">
         <v>43630</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0.88649999999999995</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12">
       <c r="A198" s="2">
         <v>43633</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>0.89149999999999996</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12">
       <c r="A199" s="2">
         <v>43634</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>0.89090000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12">
       <c r="A200" s="2">
         <v>43635</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12">
       <c r="A201" s="2">
         <v>43636</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>0.88980000000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12">
       <c r="A202" s="2">
         <v>43637</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>0.88529999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12">
       <c r="A203" s="2">
         <v>43640</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>0.87839999999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12">
       <c r="A204" s="2">
         <v>43643</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>0.87909999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12">
       <c r="A205" s="2">
         <v>43644</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12">
       <c r="A206" s="2">
         <v>43647</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>0.87990000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12">
       <c r="A207" s="2">
         <v>43648</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12">
       <c r="A208" s="2">
         <v>43649</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>0.88549999999999995</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12">
       <c r="A209" s="2">
         <v>43650</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12">
       <c r="A210" s="2">
         <v>43651</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>0.8861</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12">
       <c r="A211" s="2">
         <v>43654</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>0.89070000000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12">
       <c r="A212" s="2">
         <v>43655</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>0.89159999999999995</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12">
       <c r="A213" s="2">
         <v>43657</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0.88819999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12">
       <c r="A214" s="2">
         <v>43658</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>0.88870000000000005</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12">
       <c r="A215" s="2">
         <v>43661</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0.8871</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12">
       <c r="A216" s="2">
         <v>43662</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12">
       <c r="A217" s="2">
         <v>43663</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>0.89190000000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12">
       <c r="A218" s="2">
         <v>43663</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>0.89190000000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12">
       <c r="A219" s="2">
         <v>43664</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>0.89049999999999996</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12">
       <c r="A220" s="2">
         <v>43665</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12">
       <c r="A221" s="2">
         <v>43668</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12">
       <c r="A222" s="2">
         <v>43669</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>0.89239999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12">
       <c r="A223" s="2">
         <v>43671</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>0.89749999999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12">
       <c r="A224" s="2">
         <v>43672</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>0.8972</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12">
       <c r="A225" s="2">
         <v>43675</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0.89829999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12">
       <c r="A226" s="2">
         <v>43676</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>0.89739999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12">
       <c r="A227" s="2">
         <v>43677</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>0.8962</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12">
       <c r="A228" s="2">
         <v>43678</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>0.9032</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12">
       <c r="A229" s="2">
         <v>43679</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>0.90259999999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12">
       <c r="A230" s="2">
         <v>43682</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>0.90029999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12">
       <c r="A231" s="2">
         <v>43683</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>0.88939999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12">
       <c r="A232" s="2">
         <v>43685</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>0.89249999999999996</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12">
       <c r="A233" s="2">
         <v>43686</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0.89390000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12">
       <c r="A234" s="2">
         <v>43689</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>0.89219999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12">
       <c r="A235" s="2">
         <v>43690</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12">
       <c r="A236" s="2">
         <v>43691</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>0.89470000000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12">
       <c r="A237" s="2">
         <v>43692</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>0.89739999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12">
       <c r="A238" s="2">
         <v>43693</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>0.89980000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12">
       <c r="A239" s="2">
         <v>43696</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>0.90139999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12">
       <c r="A240" s="2">
         <v>43697</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>0.90229999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12">
       <c r="A241" s="2">
         <v>43699</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>0.90169999999999995</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12">
       <c r="A242" s="2">
         <v>43700</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>0.9022</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12">
       <c r="A243" s="2">
         <v>43704</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0.90059999999999996</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12">
       <c r="A244" s="2">
         <v>43705</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>0.90169999999999995</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12">
       <c r="A245" s="2">
         <v>43706</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>0.90210000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12">
       <c r="A246" s="2">
         <v>43707</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12">
       <c r="A247" s="2">
         <v>43710</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>0.90980000000000005</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12">
       <c r="A248" s="2">
         <v>43711</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>0.91169999999999995</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12">
       <c r="A249" s="2">
         <v>43714</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>0.90610000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12">
       <c r="A250" s="2">
         <v>43717</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>0.90739999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12">
       <c r="A251" s="2">
         <v>43718</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>0.90510000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12">
       <c r="A252" s="2">
         <v>43719</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12">
       <c r="A253" s="2">
         <v>43719</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12">
       <c r="A254" s="2">
         <v>43720</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12">
       <c r="A255" s="2">
         <v>43721</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>0.90429999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12">
       <c r="A256" s="2">
         <v>43724</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>0.9022</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12">
       <c r="A257" s="2">
         <v>43725</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>0.90859999999999996</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12">
       <c r="A258" s="2">
         <v>43727</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>0.90649999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12">
       <c r="A259" s="2">
         <v>43728</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>0.90510000000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12">
       <c r="A260" s="2">
         <v>43731</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>0.90749999999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12">
       <c r="A261" s="2">
         <v>43732</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>0.90959999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12">
       <c r="A262" s="2">
         <v>43733</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0.90769999999999995</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12">
       <c r="A263" s="2">
         <v>43734</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12">
       <c r="A264" s="2">
         <v>43735</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12">
       <c r="A265" s="2">
         <v>43738</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>0.91390000000000005</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12">
       <c r="A266" s="2">
         <v>43739</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>0.91749999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12">
       <c r="A267" s="2">
         <v>43741</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>0.91210000000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12">
       <c r="A268" s="2">
         <v>43742</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>0.91110000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12">
       <c r="A269" s="2">
         <v>43745</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>0.91020000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12">
       <c r="A270" s="2">
         <v>43746</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>0.91139999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12">
       <c r="A271" s="2">
         <v>43747</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>0.91239999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12">
       <c r="A272" s="2">
         <v>43747</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>0.91239999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12">
       <c r="A273" s="2">
         <v>43748</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>0.91010000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12">
       <c r="A274" s="2">
         <v>43749</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>0.90820000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12">
       <c r="A275" s="2">
         <v>43752</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>0.90659999999999996</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12">
       <c r="A276" s="2">
         <v>43753</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>0.90669999999999995</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12">
       <c r="A277" s="2">
         <v>43755</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>0.90290000000000004</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12">
       <c r="A278" s="2">
         <v>43756</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>0.89870000000000005</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12">
       <c r="A279" s="2">
         <v>43759</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>0.89639999999999997</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12">
       <c r="A280" s="2">
         <v>43760</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>0.89670000000000005</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12">
       <c r="A281" s="2">
         <v>43761</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>0.89849999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12">
       <c r="A282" s="2">
         <v>43762</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>0.89829999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12">
       <c r="A283" s="2">
         <v>43763</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>0.90059999999999996</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12">
       <c r="A284" s="2">
         <v>43766</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>0.9022</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12">
       <c r="A285" s="2">
         <v>43767</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12">
       <c r="A286" s="2">
         <v>43769</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>0.89649999999999996</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12">
       <c r="A287" s="2">
         <v>43770</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>0.89629999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12">
       <c r="A288" s="2">
         <v>43773</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>0.89549999999999996</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12">
       <c r="A289" s="2">
         <v>43774</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>0.89859999999999995</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12">
       <c r="A290" s="2">
         <v>43775</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12">
       <c r="A291" s="2">
         <v>43775</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12">
       <c r="A292" s="2">
         <v>43776</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0.90329999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12">
       <c r="A293" s="2">
         <v>43777</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>0.90749999999999997</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12">
       <c r="A294" s="2">
         <v>43780</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>0.90720000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12">
       <c r="A295" s="2">
         <v>43781</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>0.90620000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12">
       <c r="A296" s="2">
         <v>43783</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12">
       <c r="A297" s="2">
         <v>43784</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>0.90739999999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12">
       <c r="A298" s="2">
         <v>43787</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>0.90459999999999996</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12">
       <c r="A299" s="2">
         <v>43788</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>0.9032</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12">
       <c r="A300" s="2">
         <v>43789</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>0.90249999999999997</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12">
       <c r="A301" s="2">
         <v>43790</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>0.90259999999999996</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12">
       <c r="A302" s="2">
         <v>43791</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>0.90369999999999995</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12">
       <c r="A303" s="2">
         <v>43794</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>0.90720000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12">
       <c r="A304" s="2">
         <v>43795</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>0.90790000000000004</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12">
       <c r="A305" s="2">
         <v>43797</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>0.90869999999999995</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12">
       <c r="A306" s="2">
         <v>43798</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>0.90810000000000002</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12">
       <c r="A307" s="2">
         <v>43801</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>0.90749999999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12">
       <c r="A308" s="2">
         <v>43802</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>0.90259999999999996</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12">
       <c r="A309" s="2">
         <v>43803</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>0.90210000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12">
       <c r="A310" s="2">
         <v>43804</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>0.90229999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12">
       <c r="A311" s="2">
         <v>43805</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>0.90049999999999997</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12">
       <c r="A312" s="2">
         <v>43808</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>0.90429999999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12">
       <c r="A313" s="2">
         <v>43809</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>0.90380000000000005</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12">
       <c r="A314" s="2">
         <v>43811</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12">
       <c r="A315" s="2">
         <v>43812</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12">
       <c r="A316" s="2">
         <v>43815</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>0.89890000000000003</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12">
       <c r="A317" s="2">
         <v>43837</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12">
       <c r="A318" s="2">
         <v>43839</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>0.89980000000000004</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12">
       <c r="A319" s="2">
         <v>43840</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12">
       <c r="A320" s="2">
         <v>43843</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>0.89959999999999996</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12">
       <c r="A321" s="2">
         <v>43844</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12">
       <c r="A322" s="2">
         <v>43845</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>0.89839999999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12">
       <c r="A323" s="2">
         <v>43845</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>0.89839999999999998</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12">
       <c r="A324" s="2">
         <v>43846</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>0.89649999999999996</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12">
       <c r="A325" s="2">
         <v>43847</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>0.89770000000000005</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12">
       <c r="A326" s="2">
         <v>43850</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>0.90129999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12">
       <c r="A327" s="2">
         <v>43851</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>0.90110000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12">
       <c r="A328" s="2">
         <v>43853</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>0.9012</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12">
       <c r="A329" s="2">
         <v>43854</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>0.90459999999999996</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12">
       <c r="A330" s="2">
         <v>43857</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12">
       <c r="A331" s="2">
         <v>43858</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>0.90749999999999997</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12">
       <c r="A332" s="2">
         <v>43859</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>0.90720000000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12">
       <c r="A333" s="2">
         <v>43860</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>0.90769999999999995</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12">
       <c r="A334" s="2">
         <v>43861</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>0.90669999999999995</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12">
       <c r="A335" s="2">
         <v>43864</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>0.90169999999999995</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12">
       <c r="A336" s="2">
         <v>43865</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>0.90390000000000004</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12">
       <c r="A337" s="2">
         <v>43867</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>0.90890000000000004</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12">
       <c r="A338" s="2">
         <v>43868</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>0.91049999999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12">
       <c r="A339" s="2">
         <v>43871</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>0.9133</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12">
       <c r="A340" s="2">
         <v>43872</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0.9163</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12">
       <c r="A341" s="2">
         <v>43873</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0.91579999999999995</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12">
       <c r="A342" s="2">
         <v>43874</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>0.91949999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12">
       <c r="A343" s="2">
         <v>43875</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12">
       <c r="A344" s="2">
         <v>43878</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>0.9224</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12">
       <c r="A345" s="2">
         <v>43879</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12">
       <c r="A346" s="2">
         <v>43881</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>0.92510000000000003</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12">
       <c r="A347" s="2">
         <v>43882</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12">
       <c r="A348" s="2">
         <v>43885</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>0.92259999999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12">
       <c r="A349" s="2">
         <v>43886</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>0.92169999999999996</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12">
       <c r="A350" s="2">
         <v>43887</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>0.91890000000000005</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12">
       <c r="A351" s="2">
         <v>43888</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>0.91859999999999997</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12">
       <c r="A352" s="2">
         <v>43889</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>0.9093</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12">
       <c r="A353" s="2">
         <v>43892</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>0.90490000000000004</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12">
       <c r="A354" s="2">
         <v>43893</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>0.89729999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12">
       <c r="A355" s="2">
         <v>43895</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>0.89770000000000005</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12">
       <c r="A356" s="2">
         <v>43896</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12">
       <c r="A357" s="2">
         <v>43899</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>0.87829999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12">
       <c r="A358" s="2">
         <v>43900</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>0.87729999999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12">
       <c r="A359" s="2">
         <v>43901</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>0.88370000000000004</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12">
       <c r="A360" s="2">
         <v>43901</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>0.88370000000000004</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12">
       <c r="A361" s="2">
         <v>43902</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12">
       <c r="A362" s="2">
         <v>43903</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>0.89410000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12">
       <c r="A363" s="2">
         <v>43906</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>0.89639999999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12">
       <c r="A364" s="2">
         <v>43907</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>0.89580000000000004</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12">
       <c r="A365" s="2">
         <v>43909</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>0.9123</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12">
       <c r="A366" s="2">
         <v>43910</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>0.93830000000000002</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12">
       <c r="A367" s="2">
         <v>43913</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>0.93510000000000004</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12">
       <c r="A368" s="2">
         <v>43914</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12">
       <c r="A369" s="2">
         <v>43915</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>0.92569999999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12">
       <c r="A370" s="2">
         <v>43916</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0.91830000000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12">
       <c r="A371" s="2">
         <v>43917</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>0.90510000000000002</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12">
       <c r="A372" s="2">
         <v>43920</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>0.89770000000000005</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12">
       <c r="A373" s="2">
         <v>43921</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>0.90659999999999996</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12">
       <c r="A374" s="2">
         <v>43923</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>0.91290000000000004</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12">
       <c r="A375" s="2">
         <v>43924</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>0.92190000000000005</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12">
       <c r="A376" s="2">
         <v>43927</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>0.92530000000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12">
       <c r="A377" s="2">
         <v>43928</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>0.92559999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12">
       <c r="A378" s="2">
         <v>43929</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>0.91779999999999995</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12">
       <c r="A379" s="2">
         <v>43929</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>0.91779999999999995</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12">
       <c r="A380" s="2">
         <v>43930</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>0.92049999999999998</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12">
       <c r="A381" s="2">
         <v>43935</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12">
       <c r="A382" s="2">
         <v>43937</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12">
       <c r="A383" s="2">
         <v>43938</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>0.92090000000000005</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12">
       <c r="A384" s="2">
         <v>43941</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>0.92020000000000002</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12">
       <c r="A385" s="2">
         <v>43942</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>0.9204</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12">
       <c r="A386" s="2">
         <v>43943</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>0.92110000000000003</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12">
       <c r="A387" s="2">
         <v>43944</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>0.92510000000000003</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12">
       <c r="A388" s="2">
         <v>43945</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>0.92789999999999995</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12">
       <c r="A389" s="2">
         <v>43948</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>0.92390000000000005</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12">
       <c r="A390" s="2">
         <v>43949</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>0.92379999999999995</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12">
       <c r="A391" s="2">
         <v>43951</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>0.9194</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12">
       <c r="A392" s="2">
         <v>43956</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>0.91710000000000003</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12">
       <c r="A393" s="2">
         <v>43957</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>0.92259999999999998</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12">
       <c r="A394" s="2">
         <v>43957</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>0.92259999999999998</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12">
       <c r="A395" s="2">
         <v>43958</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>0.92610000000000003</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12">
       <c r="A396" s="2">
         <v>43959</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>0.92269999999999996</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12">
       <c r="A397" s="2">
         <v>43962</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>0.92259999999999998</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12">
       <c r="A398" s="2">
         <v>43963</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>0.92510000000000003</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12">
       <c r="A399" s="2">
         <v>43965</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>0.92390000000000005</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12">
       <c r="A400" s="2">
         <v>43966</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>0.92530000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12">
       <c r="A401" s="2">
         <v>43969</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>0.92410000000000003</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12">
       <c r="A402" s="2">
         <v>43970</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>0.91620000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12">
       <c r="A403" s="2">
         <v>43971</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>0.91510000000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12">
       <c r="A404" s="2">
         <v>43977</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>0.91720000000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12">
       <c r="A405" s="2">
         <v>43979</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>0.90769999999999995</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12">
       <c r="A406" s="2">
         <v>43980</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>0.90259999999999996</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12">
       <c r="A407" s="2">
         <v>43984</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>0.89880000000000004</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12">
       <c r="A408" s="2">
         <v>43985</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>0.89370000000000005</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12">
       <c r="A409" s="2">
         <v>43986</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12">
       <c r="A410" s="2">
         <v>43987</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12">
       <c r="A411" s="2">
         <v>43990</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>0.88339999999999996</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12">
       <c r="A412" s="2">
         <v>43991</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12">
       <c r="A413" s="2">
         <v>43993</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>0.87990000000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12">
       <c r="A414" s="2">
         <v>43994</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12">
       <c r="A415" s="2">
         <v>43997</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>0.88870000000000005</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12">
       <c r="A416" s="2">
         <v>43998</v>
       </c>
@@ -16250,7 +16250,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12">
       <c r="A417" s="2">
         <v>43999</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>0.88770000000000004</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12">
       <c r="A418" s="2">
         <v>44000</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>0.88949999999999996</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12">
       <c r="A419" s="2">
         <v>44001</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12">
       <c r="A420" s="2">
         <v>44004</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>0.89459999999999995</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12">
       <c r="A421" s="2">
         <v>44005</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>0.88660000000000005</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12">
       <c r="A422" s="2">
         <v>44007</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>0.88880000000000003</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12">
       <c r="A423" s="2">
         <v>44008</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>0.8911</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12">
       <c r="A424" s="2">
         <v>44011</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>0.89080000000000004</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12">
       <c r="A425" s="2">
         <v>44012</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>0.8891</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12">
       <c r="A426" s="2">
         <v>44013</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12">
       <c r="A427" s="2">
         <v>44013</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12">
       <c r="A428" s="2">
         <v>44014</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>0.88880000000000003</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12">
       <c r="A429" s="2">
         <v>44015</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>0.88990000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12">
       <c r="A430" s="2">
         <v>44018</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>0.8891</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12">
       <c r="A431" s="2">
         <v>44019</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12">
       <c r="A432" s="2">
         <v>44021</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>0.88190000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12">
       <c r="A433" s="2">
         <v>44022</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12">
       <c r="A434" s="2">
         <v>44025</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>0.88419999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12">
       <c r="A435" s="2">
         <v>44026</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>0.88139999999999996</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12">
       <c r="A436" s="2">
         <v>44027</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>0.87639999999999996</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12">
       <c r="A437" s="2">
         <v>44028</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>0.87590000000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12">
       <c r="A438" s="2">
         <v>44029</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>0.87780000000000002</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12">
       <c r="A439" s="2">
         <v>44032</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>0.87390000000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12">
       <c r="A440" s="2">
         <v>44033</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>0.87270000000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12">
       <c r="A441" s="2">
         <v>44035</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>0.86439999999999995</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12">
       <c r="A442" s="2">
         <v>44036</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>0.86240000000000006</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12">
       <c r="A443" s="2">
         <v>44039</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>0.85819999999999996</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12">
       <c r="A444" s="2">
         <v>44040</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>0.84970000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12">
       <c r="A445" s="2">
         <v>44041</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>0.85329999999999995</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12">
       <c r="A446" s="2">
         <v>44042</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>0.84870000000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12">
       <c r="A447" s="2">
         <v>44043</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0.84230000000000005</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12">
       <c r="A448" s="2">
         <v>44046</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>0.84870000000000001</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12">
       <c r="A449" s="2">
         <v>44047</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>0.85009999999999997</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12">
       <c r="A450" s="2">
         <v>44049</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>0.84230000000000005</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12">
       <c r="A451" s="2">
         <v>44050</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12">
       <c r="A452" s="2">
         <v>44053</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>0.84870000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12">
       <c r="A453" s="2">
         <v>44054</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>0.85189999999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12">
       <c r="A454" s="2">
         <v>44055</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12">
       <c r="A455" s="2">
         <v>44056</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>0.84789999999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12">
       <c r="A456" s="2">
         <v>44057</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>0.84630000000000005</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12">
       <c r="A457" s="2">
         <v>44060</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>0.84370000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12">
       <c r="A458" s="2">
         <v>44061</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12">
       <c r="A459" s="2">
         <v>44063</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>0.84430000000000005</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12">
       <c r="A460" s="2">
         <v>44064</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12">
       <c r="A461" s="2">
         <v>44067</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>0.84760000000000002</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12">
       <c r="A462" s="2">
         <v>44068</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>0.84789999999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12">
       <c r="A463" s="2">
         <v>44069</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12">
       <c r="A464" s="2">
         <v>44070</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>0.84440000000000004</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12">
       <c r="A465" s="2">
         <v>44071</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>0.84609999999999996</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12">
       <c r="A466" s="2">
         <v>44075</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>0.83760000000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12">
       <c r="A467" s="2">
         <v>44078</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>0.84460000000000002</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12">
       <c r="A468" s="2">
         <v>44081</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12">
       <c r="A469" s="2">
         <v>44082</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>0.84589999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12">
       <c r="A470" s="2">
         <v>44083</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>0.84960000000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12">
       <c r="A471" s="2">
         <v>44083</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>0.84960000000000002</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12">
       <c r="A472" s="2">
         <v>44084</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12">
       <c r="A473" s="2">
         <v>44085</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>0.84570000000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12">
       <c r="A474" s="2">
         <v>44088</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>0.84440000000000004</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12">
       <c r="A475" s="2">
         <v>44089</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>0.84250000000000003</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12">
       <c r="A476" s="2">
         <v>44091</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>0.84719999999999995</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12">
       <c r="A477" s="2">
         <v>44092</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12">
       <c r="A478" s="2">
         <v>44095</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>0.84419999999999995</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12">
       <c r="A479" s="2">
         <v>44096</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12">
       <c r="A480" s="2">
         <v>44097</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>0.85409999999999997</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12">
       <c r="A481" s="2">
         <v>44098</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>0.85770000000000002</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12">
       <c r="A482" s="2">
         <v>44099</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>0.85670000000000002</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12">
       <c r="A483" s="2">
         <v>44102</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>0.85940000000000005</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12">
       <c r="A484" s="2">
         <v>44103</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>0.85619999999999996</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12">
       <c r="A485" s="2">
         <v>44105</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>0.8528</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12">
       <c r="A486" s="2">
         <v>44106</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>0.85140000000000005</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12">
       <c r="A487" s="2">
         <v>44109</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>0.85319999999999996</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12">
       <c r="A488" s="2">
         <v>44110</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12">
       <c r="A489" s="2">
         <v>44111</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12">
       <c r="A490" s="2">
         <v>44111</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12">
       <c r="A491" s="2">
         <v>44112</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12">
       <c r="A492" s="2">
         <v>44113</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12">
       <c r="A493" s="2">
         <v>44116</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>0.84619999999999995</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12">
       <c r="A494" s="2">
         <v>44117</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>0.84630000000000005</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12">
       <c r="A495" s="2">
         <v>44119</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>0.85150000000000003</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12">
       <c r="A496" s="2">
         <v>44120</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>0.85419999999999996</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12">
       <c r="A497" s="2">
         <v>44123</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>0.85360000000000003</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12">
       <c r="A498" s="2">
         <v>44124</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>0.84970000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12">
       <c r="A499" s="2">
         <v>44125</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>0.84530000000000005</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12">
       <c r="A500" s="2">
         <v>44126</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>0.84360000000000002</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12">
       <c r="A501" s="2">
         <v>44127</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>0.84640000000000004</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12">
       <c r="A502" s="2">
         <v>44130</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12">
       <c r="A503" s="2">
         <v>44131</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>0.8468</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12">
       <c r="A504" s="2">
         <v>44133</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>0.85119999999999996</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12">
       <c r="A505" s="2">
         <v>44134</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>0.85629999999999995</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12">
       <c r="A506" s="2">
         <v>44137</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12">
       <c r="A507" s="2">
         <v>44138</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>0.8589</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12">
       <c r="A508" s="2">
         <v>44139</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>0.85019999999999996</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12">
       <c r="A509" s="2">
         <v>44139</v>
       </c>
@@ -19784,7 +19784,7 @@
         <v>0.85019999999999996</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12">
       <c r="A510" s="2">
         <v>44140</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>0.85229999999999995</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12">
       <c r="A511" s="2">
         <v>44141</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>0.84619999999999995</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12">
       <c r="A512" s="2">
         <v>44144</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>0.84079999999999999</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12">
       <c r="A513" s="2">
         <v>44145</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>0.84550000000000003</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12">
       <c r="A514" s="2">
         <v>44147</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12">
       <c r="A515" s="2">
         <v>44148</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>0.84719999999999995</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12">
       <c r="A516" s="2">
         <v>44151</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>0.84419999999999995</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12">
       <c r="A517" s="2">
         <v>44152</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>0.84319999999999995</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12">
       <c r="A518" s="2">
         <v>44153</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>0.84289999999999998</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12">
       <c r="A519" s="2">
         <v>44154</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12">
       <c r="A520" s="2">
         <v>44155</v>
       </c>
@@ -20202,7 +20202,7 @@
         <v>0.8427</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12">
       <c r="A521" s="2">
         <v>44158</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>0.8427</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12">
       <c r="A522" s="2">
         <v>44159</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>0.84440000000000004</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12">
       <c r="A523" s="2">
         <v>44161</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>0.83889999999999998</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12">
       <c r="A524" s="2">
         <v>44162</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>0.83919999999999995</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12">
       <c r="A525" s="2">
         <v>44165</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0.83530000000000004</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12">
       <c r="A526" s="2">
         <v>44166</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>0.8377</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12">
       <c r="A527" s="2">
         <v>44167</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>0.82820000000000005</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12">
       <c r="A528" s="2">
         <v>44168</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>0.82550000000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12">
       <c r="A529" s="2">
         <v>44169</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>0.82330000000000003</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12">
       <c r="A530" s="2">
         <v>44172</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12">
       <c r="A531" s="2">
         <v>44173</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>0.8256</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12">
       <c r="A532" s="2">
         <v>44175</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>0.82789999999999997</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12">
       <c r="A533" s="2">
         <v>44176</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>0.82340000000000002</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12">
       <c r="A534" s="2">
         <v>44179</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>0.82420000000000004</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12">
       <c r="A535" s="2">
         <v>44225</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>0.82509999999999994</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12">
       <c r="A536" s="2">
         <v>44228</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>0.82479999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12">
       <c r="A537" s="2">
         <v>44229</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>0.8286</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12">
       <c r="A538" s="2">
         <v>44230</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>0.8306</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12">
       <c r="A539" s="2">
         <v>44231</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>0.83040000000000003</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12">
       <c r="A540" s="2">
         <v>44232</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>0.8357</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12">
       <c r="A541" s="2">
         <v>44235</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12">
       <c r="A542" s="2">
         <v>44236</v>
       </c>
@@ -21038,7 +21038,7 @@
         <v>0.8296</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12">
       <c r="A543" s="2">
         <v>44237</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>0.82509999999999994</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12">
       <c r="A544" s="2">
         <v>44238</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12">
       <c r="A545" s="2">
         <v>44239</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>0.82430000000000003</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12">
       <c r="A546" s="2">
         <v>44242</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>0.82489999999999997</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12">
       <c r="A547" s="2">
         <v>44243</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>0.82430000000000003</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12">
       <c r="A548" s="2">
         <v>44244</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12">
       <c r="A549" s="2">
         <v>44245</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12">
       <c r="A550" s="2">
         <v>44246</v>
       </c>
@@ -21342,7 +21342,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12">
       <c r="A551" s="2">
         <v>44249</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>0.8246</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12">
       <c r="A552" s="2">
         <v>44250</v>
       </c>
@@ -21418,7 +21418,7 @@
         <v>0.82189999999999996</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12">
       <c r="A553" s="2">
         <v>44251</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>0.82289999999999996</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12">
       <c r="A554" s="2">
         <v>44252</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12">
       <c r="A555" s="2">
         <v>44253</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>0.82230000000000003</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12">
       <c r="A556" s="2">
         <v>44256</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>0.82720000000000005</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12">
       <c r="A557" s="2">
         <v>44257</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>0.82979999999999998</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12">
       <c r="A558" s="2">
         <v>44258</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>0.82740000000000002</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12">
       <c r="A559" s="2">
         <v>44259</v>
       </c>
@@ -21684,7 +21684,7 @@
         <v>0.82979999999999998</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12">
       <c r="A560" s="2">
         <v>44260</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>0.83560000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12">
       <c r="A561" s="2">
         <v>44263</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>0.83850000000000002</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12">
       <c r="A562" s="2">
         <v>44264</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>0.84379999999999999</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12">
       <c r="A563" s="2">
         <v>44265</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>0.84050000000000002</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12">
       <c r="A564" s="2">
         <v>44266</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>0.83850000000000002</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12">
       <c r="A565" s="2">
         <v>44267</v>
       </c>
@@ -21912,7 +21912,7 @@
         <v>0.83430000000000004</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12">
       <c r="A566" s="2">
         <v>44270</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>0.83679999999999999</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12">
       <c r="A567" s="2">
         <v>44271</v>
       </c>
@@ -21988,7 +21988,7 @@
         <v>0.83850000000000002</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12">
       <c r="A568" s="2">
         <v>44272</v>
       </c>
@@ -22026,7 +22026,7 @@
         <v>0.84019999999999995</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12">
       <c r="A569" s="2">
         <v>44272</v>
       </c>
@@ -22064,7 +22064,7 @@
         <v>0.84019999999999995</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12">
       <c r="A570" s="2">
         <v>44273</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>0.83450000000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12">
       <c r="A571" s="2">
         <v>44274</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12">
       <c r="A572" s="2">
         <v>44277</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>0.84150000000000003</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12">
       <c r="A573" s="2">
         <v>44278</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12">
       <c r="A574" s="2">
         <v>44279</v>
       </c>
@@ -22254,7 +22254,7 @@
         <v>0.84460000000000002</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12">
       <c r="A575" s="2">
         <v>44280</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>0.84650000000000003</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12">
       <c r="A576" s="2">
         <v>44281</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>0.84909999999999997</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12">
       <c r="A577" s="2">
         <v>44284</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>0.84830000000000005</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12">
       <c r="A578" s="2">
         <v>44285</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>0.84950000000000003</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12">
       <c r="A579" s="2">
         <v>44286</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12">
       <c r="A580" s="2">
         <v>44287</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>0.85260000000000002</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12">
       <c r="A581" s="2">
         <v>44292</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>0.84609999999999996</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12">
       <c r="A582" s="2">
         <v>44293</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12">
       <c r="A583" s="2">
         <v>44294</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12">
       <c r="A584" s="2">
         <v>44295</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>0.83919999999999995</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12">
       <c r="A585" s="2">
         <v>44298</v>
       </c>
@@ -22672,7 +22672,7 @@
         <v>0.84030000000000005</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12">
       <c r="A586" s="2">
         <v>44299</v>
       </c>
@@ -22710,7 +22710,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12">
       <c r="A587" s="2">
         <v>44300</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>0.83650000000000002</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12">
       <c r="A588" s="2">
         <v>44300</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>0.83650000000000002</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12">
       <c r="A589" s="2">
         <v>44301</v>
       </c>
@@ -22824,7 +22824,7 @@
         <v>0.83430000000000004</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12">
       <c r="A590" s="2">
         <v>44302</v>
       </c>
@@ -22862,7 +22862,7 @@
         <v>0.83530000000000004</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12">
       <c r="A591" s="2">
         <v>44305</v>
       </c>
@@ -22900,7 +22900,7 @@
         <v>0.83550000000000002</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12">
       <c r="A592" s="2">
         <v>44306</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>0.83020000000000005</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12">
       <c r="A593" s="2">
         <v>44307</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>0.83109999999999995</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12">
       <c r="A594" s="2">
         <v>44308</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>0.83069999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12">
       <c r="A595" s="2">
         <v>44309</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>0.83230000000000004</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12">
       <c r="A596" s="2">
         <v>44312</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>0.82709999999999995</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12">
       <c r="A597" s="2">
         <v>44313</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>0.82769999999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12">
       <c r="A598" s="2">
         <v>44314</v>
       </c>
@@ -23166,7 +23166,7 @@
         <v>0.82709999999999995</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12">
       <c r="A599" s="2">
         <v>44315</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12">
       <c r="A600" s="2">
         <v>44316</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>0.8246</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12">
       <c r="A601" s="2">
         <v>44320</v>
       </c>
@@ -23280,7 +23280,7 @@
         <v>0.82909999999999995</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12">
       <c r="A602" s="2">
         <v>44321</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>0.83230000000000004</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12">
       <c r="A603" s="2">
         <v>44322</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>0.83279999999999998</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12">
       <c r="A604" s="2">
         <v>44323</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>0.8286</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12">
       <c r="A605" s="2">
         <v>44326</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12">
       <c r="A606" s="2">
         <v>44327</v>
       </c>
@@ -23470,7 +23470,7 @@
         <v>0.82369999999999999</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12">
       <c r="A607" s="2">
         <v>44328</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>0.82340000000000002</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12">
       <c r="A608" s="2">
         <v>44328</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>0.82340000000000002</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12">
       <c r="A609" s="2">
         <v>44333</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12">
       <c r="A610" s="2">
         <v>44334</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>0.8226</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12">
       <c r="A611" s="2">
         <v>44335</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12">
       <c r="A612" s="2">
         <v>44336</v>
       </c>
@@ -23698,7 +23698,7 @@
         <v>0.82150000000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12">
       <c r="A613" s="2">
         <v>44337</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12">
       <c r="A614" s="2">
         <v>44341</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>0.81869999999999998</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12">
       <c r="A615" s="2">
         <v>44342</v>
       </c>
@@ -23812,7 +23812,7 @@
         <v>0.81640000000000001</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12">
       <c r="A616" s="2">
         <v>44343</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>0.82020000000000004</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12">
       <c r="A617" s="2">
         <v>44344</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>0.82010000000000005</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12">
       <c r="A618" s="2">
         <v>44348</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>0.8175</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12">
       <c r="A619" s="2">
         <v>44349</v>
       </c>
@@ -23964,7 +23964,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12">
       <c r="A620" s="2">
         <v>44350</v>
       </c>
@@ -24002,7 +24002,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12">
       <c r="A621" s="2">
         <v>44351</v>
       </c>
@@ -24040,7 +24040,7 @@
         <v>0.82420000000000004</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12">
       <c r="A622" s="2">
         <v>44354</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>0.82179999999999997</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12">
       <c r="A623" s="2">
         <v>44355</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>0.82010000000000005</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:12">
       <c r="A624" s="2">
         <v>44356</v>
       </c>
@@ -24154,7 +24154,7 @@
         <v>0.82150000000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:12">
       <c r="A625" s="2">
         <v>44357</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>0.82089999999999996</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:12">
       <c r="A626" s="2">
         <v>44358</v>
       </c>
@@ -24230,7 +24230,7 @@
         <v>0.82150000000000001</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12">
       <c r="A627" s="2">
         <v>44361</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>0.82569999999999999</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12">
       <c r="A628" s="2">
         <v>44362</v>
       </c>
@@ -24306,7 +24306,7 @@
         <v>0.82489999999999997</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12">
       <c r="A629" s="2">
         <v>44363</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v>0.8246</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:12">
       <c r="A630" s="2">
         <v>44364</v>
       </c>
@@ -24382,7 +24382,7 @@
         <v>0.83360000000000001</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12">
       <c r="A631" s="2">
         <v>44365</v>
       </c>
@@ -24420,7 +24420,7 @@
         <v>0.83940000000000003</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12">
       <c r="A632" s="2">
         <v>44368</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:12">
       <c r="A633" s="2">
         <v>44369</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>0.83950000000000002</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:12">
       <c r="A634" s="2">
         <v>44370</v>
       </c>
@@ -24534,7 +24534,7 @@
         <v>0.83779999999999999</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12">
       <c r="A635" s="2">
         <v>44371</v>
       </c>
@@ -24572,7 +24572,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12">
       <c r="A636" s="2">
         <v>44372</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>0.83819999999999995</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:12">
       <c r="A637" s="2">
         <v>44375</v>
       </c>
@@ -24648,7 +24648,7 @@
         <v>0.83740000000000003</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12">
       <c r="A638" s="2">
         <v>44376</v>
       </c>
@@ -24686,7 +24686,7 @@
         <v>0.83830000000000005</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:12">
       <c r="A639" s="2">
         <v>44377</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>0.84019999999999995</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12">
       <c r="A640" s="2">
         <v>44378</v>
       </c>
@@ -24762,7 +24762,7 @@
         <v>0.84340000000000004</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:12">
       <c r="A641" s="2">
         <v>44379</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>0.84419999999999995</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:12">
       <c r="A642" s="2">
         <v>44382</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>0.84340000000000004</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:12">
       <c r="A643" s="2">
         <v>44383</v>
       </c>
@@ -24876,7 +24876,7 @@
         <v>0.84289999999999998</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:12">
       <c r="A644" s="2">
         <v>44384</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>0.84570000000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:12">
       <c r="A645" s="2">
         <v>44384</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>0.84570000000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:12">
       <c r="A646" s="2">
         <v>44385</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>0.84789999999999999</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:12">
       <c r="A647" s="2">
         <v>44386</v>
       </c>
@@ -25028,7 +25028,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:12">
       <c r="A648" s="2">
         <v>44389</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:12">
       <c r="A649" s="2">
         <v>44390</v>
       </c>
@@ -25104,7 +25104,7 @@
         <v>0.84279999999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:12">
       <c r="A650" s="2">
         <v>44391</v>
       </c>
@@ -25142,7 +25142,7 @@
         <v>0.84919999999999995</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:12">
       <c r="A651" s="2">
         <v>44392</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>0.84509999999999996</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:12">
       <c r="A652" s="2">
         <v>44393</v>
       </c>
@@ -25218,7 +25218,7 @@
         <v>0.84660000000000002</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:12">
       <c r="A653" s="2">
         <v>44396</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>0.84650000000000003</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:12">
       <c r="A654" s="2">
         <v>44397</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>0.84789999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:12">
       <c r="A655" s="2">
         <v>44398</v>
       </c>
@@ -25332,7 +25332,7 @@
         <v>0.84860000000000002</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:12">
       <c r="A656" s="2">
         <v>44399</v>
       </c>
@@ -25370,7 +25370,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:12">
       <c r="A657" s="2">
         <v>44400</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>0.84940000000000004</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:12">
       <c r="A658" s="2">
         <v>44403</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>0.84940000000000004</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:12">
       <c r="A659" s="2">
         <v>44404</v>
       </c>
@@ -25484,7 +25484,7 @@
         <v>0.84689999999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:12">
       <c r="A660" s="2">
         <v>44405</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>0.8458</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:12">
       <c r="A661" s="2">
         <v>44406</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>0.84419999999999995</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:12">
       <c r="A662" s="2">
         <v>44407</v>
       </c>
@@ -25598,7 +25598,7 @@
         <v>0.84079999999999999</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:12">
       <c r="A663" s="2">
         <v>44410</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>0.8427</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:12">
       <c r="A664" s="2">
         <v>44411</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>0.84209999999999996</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:12">
       <c r="A665" s="2">
         <v>44412</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>0.84250000000000003</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:12">
       <c r="A666" s="2">
         <v>44413</v>
       </c>
@@ -25750,7 +25750,7 @@
         <v>0.8448</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:12">
       <c r="A667" s="2">
         <v>44414</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>0.84489999999999998</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:12">
       <c r="A668" s="2">
         <v>44417</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>0.85109999999999997</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:12">
       <c r="A669" s="2">
         <v>44418</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>0.85189999999999999</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:12">
       <c r="A670" s="2">
         <v>44419</v>
       </c>
@@ -25902,7 +25902,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:12">
       <c r="A671" s="2">
         <v>44420</v>
       </c>
@@ -25940,7 +25940,7 @@
         <v>0.85170000000000001</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:12">
       <c r="A672" s="2">
         <v>44421</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>0.85209999999999997</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:12">
       <c r="A673" s="2">
         <v>44424</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>0.8478</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:12">
       <c r="A674" s="2">
         <v>44425</v>
       </c>
@@ -26054,7 +26054,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:12">
       <c r="A675" s="2">
         <v>44426</v>
       </c>
@@ -26092,7 +26092,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:12">
       <c r="A676" s="2">
         <v>44427</v>
       </c>
@@ -26130,7 +26130,7 @@
         <v>0.85450000000000004</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:12">
       <c r="A677" s="2">
         <v>44428</v>
       </c>
@@ -26168,7 +26168,7 @@
         <v>0.85640000000000005</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:12">
       <c r="A678" s="2">
         <v>44431</v>
       </c>
@@ -26206,7 +26206,7 @@
         <v>0.85489999999999999</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:12">
       <c r="A679" s="2">
         <v>44432</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>0.85150000000000003</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:12">
       <c r="A680" s="2">
         <v>44433</v>
       </c>
@@ -26282,7 +26282,7 @@
         <v>0.8508</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:12">
       <c r="A681" s="2">
         <v>44434</v>
       </c>
@@ -26320,7 +26320,7 @@
         <v>0.84930000000000005</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:12">
       <c r="A682" s="2">
         <v>44435</v>
       </c>
@@ -26358,7 +26358,7 @@
         <v>0.85060000000000002</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:12">
       <c r="A683" s="2">
         <v>44439</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>0.84770000000000001</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:12">
       <c r="A684" s="2">
         <v>44440</v>
       </c>
@@ -26434,7 +26434,7 @@
         <v>0.84670000000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:12">
       <c r="A685" s="2">
         <v>44442</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:12">
       <c r="A686" s="2">
         <v>44445</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>0.84130000000000005</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:12">
       <c r="A687" s="2">
         <v>44446</v>
       </c>
@@ -26548,7 +26548,7 @@
         <v>0.84209999999999996</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:12">
       <c r="A688" s="2">
         <v>44447</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>0.84430000000000005</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:12">
       <c r="A689" s="2">
         <v>44448</v>
       </c>
@@ -26624,7 +26624,7 @@
         <v>0.84609999999999996</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:12">
       <c r="A690" s="2">
         <v>44449</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>0.84560000000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:12">
       <c r="A691" s="2">
         <v>44452</v>
       </c>
@@ -26700,7 +26700,7 @@
         <v>0.84660000000000002</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:12">
       <c r="A692" s="2">
         <v>44453</v>
       </c>
@@ -26738,7 +26738,7 @@
         <v>0.84660000000000002</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:12">
       <c r="A693" s="2">
         <v>44454</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>0.84709999999999996</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:12">
       <c r="A694" s="2">
         <v>44454</v>
       </c>
@@ -26814,7 +26814,7 @@
         <v>0.84709999999999996</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:12">
       <c r="A695" s="2">
         <v>44455</v>
       </c>
@@ -26852,7 +26852,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:12">
       <c r="A696" s="2">
         <v>44456</v>
       </c>
@@ -26890,7 +26890,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:12">
       <c r="A697" s="2">
         <v>44459</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>0.85250000000000004</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:12">
       <c r="A698" s="2">
         <v>44460</v>
       </c>
@@ -26966,7 +26966,7 @@
         <v>0.85250000000000004</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:12">
       <c r="A699" s="2">
         <v>44461</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:12">
       <c r="A700" s="2">
         <v>44462</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0.85560000000000003</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:12">
       <c r="A701" s="2">
         <v>44463</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>0.8518</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:12">
       <c r="A702" s="2">
         <v>44466</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:12">
       <c r="A703" s="2">
         <v>44467</v>
       </c>
@@ -27156,7 +27156,7 @@
         <v>0.85489999999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:12">
       <c r="A704" s="2">
         <v>44468</v>
       </c>
@@ -27194,7 +27194,7 @@
         <v>0.85570000000000002</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:12">
       <c r="A705" s="2">
         <v>44469</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>0.8619</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:12">
       <c r="A706" s="2">
         <v>44470</v>
       </c>
@@ -27270,7 +27270,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:12">
       <c r="A707" s="2">
         <v>44473</v>
       </c>
@@ -27308,7 +27308,7 @@
         <v>0.86150000000000004</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:12">
       <c r="A708" s="2">
         <v>44474</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>0.86070000000000002</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:12">
       <c r="A709" s="2">
         <v>44475</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>0.86240000000000006</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:12">
       <c r="A710" s="2">
         <v>44476</v>
       </c>
@@ -27422,7 +27422,7 @@
         <v>0.86539999999999995</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:12">
       <c r="A711" s="2">
         <v>44477</v>
       </c>
@@ -27460,7 +27460,7 @@
         <v>0.86509999999999998</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:12">
       <c r="A712" s="2">
         <v>44480</v>
       </c>
@@ -27498,7 +27498,7 @@
         <v>0.86460000000000004</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:12">
       <c r="A713" s="2">
         <v>44481</v>
       </c>
@@ -27536,7 +27536,7 @@
         <v>0.86550000000000005</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:12">
       <c r="A714" s="2">
         <v>44482</v>
       </c>
@@ -27574,7 +27574,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:12">
       <c r="A715" s="2">
         <v>44482</v>
       </c>
@@ -27612,7 +27612,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:12">
       <c r="A716" s="2">
         <v>44483</v>
       </c>
@@ -27650,7 +27650,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:12">
       <c r="A717" s="2">
         <v>44484</v>
       </c>
@@ -27688,7 +27688,7 @@
         <v>0.86270000000000002</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:12">
       <c r="A718" s="2">
         <v>44487</v>
       </c>
@@ -27726,7 +27726,7 @@
         <v>0.86229999999999996</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:12">
       <c r="A719" s="2">
         <v>44488</v>
       </c>
@@ -27764,7 +27764,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:12">
       <c r="A720" s="2">
         <v>44489</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>0.85970000000000002</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:12">
       <c r="A721" s="2">
         <v>44490</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:12">
       <c r="A722" s="2">
         <v>44491</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>0.86019999999999996</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:12">
       <c r="A723" s="2">
         <v>44494</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>0.85909999999999997</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:12">
       <c r="A724" s="2">
         <v>44495</v>
       </c>
@@ -27954,7 +27954,7 @@
         <v>0.86119999999999997</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:12">
       <c r="A725" s="2">
         <v>44496</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>0.86219999999999997</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:12">
       <c r="A726" s="2">
         <v>44497</v>
       </c>
@@ -28030,7 +28030,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:12">
       <c r="A727" s="2">
         <v>44498</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>0.85589999999999999</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:12">
       <c r="A728" s="2">
         <v>44501</v>
       </c>
@@ -28106,7 +28106,7 @@
         <v>0.86529999999999996</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:12">
       <c r="A729" s="2">
         <v>44502</v>
       </c>
@@ -28144,7 +28144,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:12">
       <c r="A730" s="2">
         <v>44503</v>
       </c>
@@ -28182,7 +28182,7 @@
         <v>0.86360000000000003</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:12">
       <c r="A731" s="2">
         <v>44504</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>0.8609</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:12">
       <c r="A732" s="2">
         <v>44505</v>
       </c>
@@ -28258,7 +28258,7 @@
         <v>0.86539999999999995</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:12">
       <c r="A733" s="2">
         <v>44508</v>
       </c>
@@ -28296,7 +28296,7 @@
         <v>0.86439999999999995</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:12">
       <c r="A734" s="2">
         <v>44509</v>
       </c>
@@ -28334,7 +28334,7 @@
         <v>0.86270000000000002</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:12">
       <c r="A735" s="2">
         <v>44510</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>0.86240000000000006</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:12">
       <c r="A736" s="2">
         <v>44510</v>
       </c>
@@ -28410,7 +28410,7 @@
         <v>0.86240000000000006</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:12">
       <c r="A737" s="2">
         <v>44511</v>
       </c>
@@ -28448,7 +28448,7 @@
         <v>0.87060000000000004</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:12">
       <c r="A738" s="2">
         <v>44512</v>
       </c>
@@ -28486,7 +28486,7 @@
         <v>0.87329999999999997</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:12">
       <c r="A739" s="2">
         <v>44515</v>
       </c>
@@ -28524,7 +28524,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:12">
       <c r="A740" s="2">
         <v>44516</v>
       </c>
@@ -28562,7 +28562,7 @@
         <v>0.87980000000000003</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:12">
       <c r="A741" s="2">
         <v>44517</v>
       </c>
@@ -28600,7 +28600,7 @@
         <v>0.88329999999999997</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:12">
       <c r="A742" s="2">
         <v>44518</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>0.88329999999999997</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:12">
       <c r="A743" s="2">
         <v>44519</v>
       </c>
@@ -28676,7 +28676,7 @@
         <v>0.87960000000000005</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:12">
       <c r="A744" s="2">
         <v>44522</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>0.88690000000000002</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:12">
       <c r="A745" s="2">
         <v>44523</v>
       </c>
@@ -28752,7 +28752,7 @@
         <v>0.88949999999999996</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:12">
       <c r="A746" s="2">
         <v>44524</v>
       </c>
@@ -28790,7 +28790,7 @@
         <v>0.88929999999999998</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:12">
       <c r="A747" s="2">
         <v>44525</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>0.89259999999999995</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:12">
       <c r="A748" s="2">
         <v>44526</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>0.8921</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:12">
       <c r="A749" s="2">
         <v>44529</v>
       </c>
@@ -28904,7 +28904,7 @@
         <v>0.88549999999999995</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:12">
       <c r="A750" s="2">
         <v>44530</v>
       </c>
@@ -28942,7 +28942,7 @@
         <v>0.88549999999999995</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:12">
       <c r="A751" s="2">
         <v>44531</v>
       </c>
@@ -28980,7 +28980,7 @@
         <v>0.88260000000000005</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:12">
       <c r="A752" s="2">
         <v>44532</v>
       </c>
@@ -29018,7 +29018,7 @@
         <v>0.88339999999999996</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:12">
       <c r="A753" s="2">
         <v>44533</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:12">
       <c r="A754" s="2">
         <v>44536</v>
       </c>
@@ -29094,7 +29094,7 @@
         <v>0.88460000000000005</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:12">
       <c r="A755" s="2">
         <v>44537</v>
       </c>
@@ -29132,7 +29132,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:12">
       <c r="A756" s="2">
         <v>44538</v>
       </c>
@@ -29170,7 +29170,7 @@
         <v>0.88680000000000003</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:12">
       <c r="A757" s="2">
         <v>44539</v>
       </c>
@@ -29208,7 +29208,7 @@
         <v>0.88139999999999996</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:12">
       <c r="A758" s="2">
         <v>44540</v>
       </c>
@@ -29246,7 +29246,7 @@
         <v>0.88549999999999995</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:12">
       <c r="A759" s="2">
         <v>44543</v>
       </c>
@@ -29284,7 +29284,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:12">
       <c r="A760" s="2">
         <v>44544</v>
       </c>
@@ -29322,7 +29322,7 @@
         <v>0.8861</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:12">
       <c r="A761" s="2">
         <v>44545</v>
       </c>
@@ -29360,7 +29360,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:12">
       <c r="A762" s="2">
         <v>44546</v>
       </c>
@@ -29398,7 +29398,7 @@
         <v>0.88570000000000004</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:12">
       <c r="A763" s="2">
         <v>44547</v>
       </c>
@@ -29436,7 +29436,7 @@
         <v>0.88229999999999997</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:12">
       <c r="A764" s="2">
         <v>44550</v>
       </c>
@@ -29474,7 +29474,7 @@
         <v>0.88939999999999997</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:12">
       <c r="A765" s="2">
         <v>44571</v>
       </c>
@@ -29512,7 +29512,7 @@
         <v>0.88080000000000003</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:12">
       <c r="A766" s="2">
         <v>44572</v>
       </c>
@@ -29550,7 +29550,7 @@
         <v>0.88260000000000005</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:12">
       <c r="A767" s="2">
         <v>44574</v>
       </c>
@@ -29588,7 +29588,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:12">
       <c r="A768" s="2">
         <v>44575</v>
       </c>
@@ -29626,7 +29626,7 @@
         <v>0.87280000000000002</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:12">
       <c r="A769" s="2">
         <v>44578</v>
       </c>
@@ -29664,7 +29664,7 @@
         <v>0.87639999999999996</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:12">
       <c r="A770" s="2">
         <v>44579</v>
       </c>
@@ -29702,7 +29702,7 @@
         <v>0.87639999999999996</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:12">
       <c r="A771" s="2">
         <v>44580</v>
       </c>
@@ -29740,7 +29740,7 @@
         <v>0.88260000000000005</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:12">
       <c r="A772" s="2">
         <v>44581</v>
       </c>
@@ -29778,7 +29778,7 @@
         <v>0.88160000000000005</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:12">
       <c r="A773" s="2">
         <v>44582</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:12">
       <c r="A774" s="2">
         <v>44585</v>
       </c>
@@ -29854,7 +29854,7 @@
         <v>0.88170000000000004</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:12">
       <c r="A775" s="2">
         <v>44586</v>
       </c>
@@ -29892,7 +29892,7 @@
         <v>0.8831</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:12">
       <c r="A776" s="2">
         <v>44588</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>0.88939999999999997</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:12">
       <c r="A777" s="2">
         <v>44589</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>0.89710000000000001</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:12">
       <c r="A778" s="2">
         <v>44592</v>
       </c>
@@ -30006,7 +30006,7 @@
         <v>0.89670000000000005</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:12">
       <c r="A779" s="2">
         <v>44593</v>
       </c>
@@ -30044,7 +30044,7 @@
         <v>0.89049999999999996</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:12">
       <c r="A780" s="2">
         <v>44594</v>
       </c>
@@ -30082,7 +30082,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:12">
       <c r="A781" s="2">
         <v>44595</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:12">
       <c r="A782" s="2">
         <v>44596</v>
       </c>
@@ -30158,7 +30158,7 @@
         <v>0.87450000000000006</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:12">
       <c r="A783" s="2">
         <v>44599</v>
       </c>
@@ -30196,7 +30196,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:12">
       <c r="A784" s="2">
         <v>44600</v>
       </c>
@@ -30234,7 +30234,7 @@
         <v>0.87390000000000001</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:12">
       <c r="A785" s="2">
         <v>44601</v>
       </c>
@@ -30272,7 +30272,7 @@
         <v>0.87560000000000004</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:12">
       <c r="A786" s="2">
         <v>44602</v>
       </c>
@@ -30310,7 +30310,7 @@
         <v>0.87549999999999994</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:12">
       <c r="A787" s="2">
         <v>44603</v>
       </c>
@@ -30348,7 +30348,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:12">
       <c r="A788" s="2">
         <v>44606</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>0.87990000000000002</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:12">
       <c r="A789" s="2">
         <v>44607</v>
       </c>
@@ -30424,7 +30424,7 @@
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:12">
       <c r="A790" s="2">
         <v>44608</v>
       </c>
@@ -30462,7 +30462,7 @@
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:12">
       <c r="A791" s="2">
         <v>44609</v>
       </c>
@@ -30500,7 +30500,7 @@
         <v>0.87909999999999999</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:12">
       <c r="A792" s="2">
         <v>44610</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>0.87980000000000003</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:12">
       <c r="A793" s="2">
         <v>44613</v>
       </c>
@@ -30576,7 +30576,7 @@
         <v>0.88360000000000005</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:12">
       <c r="A794" s="2">
         <v>44614</v>
       </c>
@@ -30614,7 +30614,7 @@
         <v>0.88419999999999999</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:12">
       <c r="A795" s="2">
         <v>44615</v>
       </c>
@@ -30652,7 +30652,7 @@
         <v>0.88270000000000004</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:12">
       <c r="A796" s="2">
         <v>44616</v>
       </c>
@@ -30690,7 +30690,7 @@
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:12">
       <c r="A797" s="2">
         <v>44617</v>
       </c>
@@ -30728,7 +30728,7 @@
         <v>0.89359999999999995</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:12">
       <c r="A798" s="2">
         <v>44620</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:12">
       <c r="A799" s="2">
         <v>44621</v>
       </c>
@@ -30804,7 +30804,7 @@
         <v>0.89159999999999995</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:12">
       <c r="A800" s="2">
         <v>44622</v>
       </c>
@@ -30842,7 +30842,7 @@
         <v>0.8982</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:12">
       <c r="A801" s="2">
         <v>44623</v>
       </c>
@@ -30880,7 +30880,7 @@
         <v>0.89990000000000003</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:12">
       <c r="A802" s="2">
         <v>44624</v>
       </c>
@@ -30918,7 +30918,7 @@
         <v>0.90359999999999996</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:12">
       <c r="A803" s="2">
         <v>44627</v>
       </c>
@@ -30956,7 +30956,7 @@
         <v>0.91959999999999997</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:12">
       <c r="A804" s="2">
         <v>44628</v>
       </c>
@@ -30994,7 +30994,7 @@
         <v>0.9204</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:12">
       <c r="A805" s="2">
         <v>44630</v>
       </c>
@@ -31032,7 +31032,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:12">
       <c r="A806" s="2">
         <v>44631</v>
       </c>
@@ -31070,7 +31070,7 @@
         <v>0.90790000000000004</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:12">
       <c r="A807" s="2">
         <v>44634</v>
       </c>
@@ -31108,7 +31108,7 @@
         <v>0.91469999999999996</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:12">
       <c r="A808" s="2">
         <v>44635</v>
       </c>
@@ -31146,7 +31146,7 @@
         <v>0.91379999999999995</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:12">
       <c r="A809" s="2">
         <v>44636</v>
       </c>
@@ -31184,7 +31184,7 @@
         <v>0.91159999999999997</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:12">
       <c r="A810" s="2">
         <v>44637</v>
       </c>
@@ -31222,7 +31222,7 @@
         <v>0.9073</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:12">
       <c r="A811" s="2">
         <v>44638</v>
       </c>
@@ -31260,7 +31260,7 @@
         <v>0.90090000000000003</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:12">
       <c r="A812" s="2">
         <v>44641</v>
       </c>
@@ -31298,7 +31298,7 @@
         <v>0.90549999999999997</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:12">
       <c r="A813" s="2">
         <v>44642</v>
       </c>
@@ -31336,7 +31336,7 @@
         <v>0.90769999999999995</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:12">
       <c r="A814" s="2">
         <v>44644</v>
       </c>
@@ -31374,7 +31374,7 @@
         <v>0.90859999999999996</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:12">
       <c r="A815" s="2">
         <v>44645</v>
       </c>
@@ -31412,7 +31412,7 @@
         <v>0.9083</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:12">
       <c r="A816" s="2">
         <v>44648</v>
       </c>
@@ -31450,7 +31450,7 @@
         <v>0.91059999999999997</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:12">
       <c r="A817" s="2">
         <v>44649</v>
       </c>
@@ -31488,7 +31488,7 @@
         <v>0.90959999999999996</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:12">
       <c r="A818" s="2">
         <v>44650</v>
       </c>
@@ -31526,7 +31526,7 @@
         <v>0.90159999999999996</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:12">
       <c r="A819" s="2">
         <v>44651</v>
       </c>
@@ -31564,7 +31564,7 @@
         <v>0.89590000000000003</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:12">
       <c r="A820" s="2">
         <v>44652</v>
       </c>
@@ -31602,7 +31602,7 @@
         <v>0.9032</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:12">
       <c r="A821" s="2">
         <v>44655</v>
       </c>
@@ -31640,7 +31640,7 @@
         <v>0.9052</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:12">
       <c r="A822" s="2">
         <v>44656</v>
       </c>
@@ -31678,7 +31678,7 @@
         <v>0.91110000000000002</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:12">
       <c r="A823" s="2">
         <v>44657</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>0.91690000000000005</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:12">
       <c r="A824" s="2">
         <v>44658</v>
       </c>
@@ -31754,7 +31754,7 @@
         <v>0.91759999999999997</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:12">
       <c r="A825" s="2">
         <v>44659</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>0.9204</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:12">
       <c r="A826" s="2">
         <v>44662</v>
       </c>
@@ -31830,7 +31830,7 @@
         <v>0.91869999999999996</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:12">
       <c r="A827" s="2">
         <v>44663</v>
       </c>
@@ -31868,7 +31868,7 @@
         <v>0.91930000000000001</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:12">
       <c r="A828" s="2">
         <v>44664</v>
       </c>
@@ -31906,7 +31906,7 @@
         <v>0.92369999999999997</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:12">
       <c r="A829" s="2">
         <v>44665</v>
       </c>
@@ -31944,7 +31944,7 @@
         <v>0.91769999999999996</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:12">
       <c r="A830" s="2">
         <v>44670</v>
       </c>
@@ -31982,7 +31982,7 @@
         <v>0.92749999999999999</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:12">
       <c r="A831" s="2">
         <v>44672</v>
       </c>
@@ -32020,7 +32020,7 @@
         <v>0.92169999999999996</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:12">
       <c r="A832" s="2">
         <v>44673</v>
       </c>
@@ -32058,7 +32058,7 @@
         <v>0.92290000000000005</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:12">
       <c r="A833" s="2">
         <v>44676</v>
       </c>
@@ -32096,7 +32096,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:12">
       <c r="A834" s="2">
         <v>44677</v>
       </c>
@@ -32134,7 +32134,7 @@
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:12">
       <c r="A835" s="2">
         <v>44678</v>
       </c>
@@ -32172,7 +32172,7 @@
         <v>0.9395</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:12">
       <c r="A836" s="2">
         <v>44679</v>
       </c>
@@ -32210,7 +32210,7 @@
         <v>0.94740000000000002</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:12">
       <c r="A837" s="2">
         <v>44680</v>
       </c>
@@ -32248,7 +32248,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:12">
       <c r="A838" s="2">
         <v>44683</v>
       </c>
@@ -32286,7 +32286,7 @@
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:12">
       <c r="A839" s="2">
         <v>44684</v>
       </c>
@@ -32324,7 +32324,7 @@
         <v>0.9516</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:12">
       <c r="A840" s="2">
         <v>44686</v>
       </c>
@@ -32362,7 +32362,7 @@
         <v>0.94140000000000001</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:12">
       <c r="A841" s="2">
         <v>44687</v>
       </c>
@@ -32400,7 +32400,7 @@
         <v>0.94879999999999998</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:12">
       <c r="A842" s="2">
         <v>44690</v>
       </c>
@@ -32438,7 +32438,7 @@
         <v>0.94950000000000001</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:12">
       <c r="A843" s="2">
         <v>44691</v>
       </c>
@@ -32476,7 +32476,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:12">
       <c r="A844" s="2">
         <v>44692</v>
       </c>
@@ -32514,7 +32514,7 @@
         <v>0.94940000000000002</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:12">
       <c r="A845" s="2">
         <v>44693</v>
       </c>
@@ -32552,7 +32552,7 @@
         <v>0.95130000000000003</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:12">
       <c r="A846" s="2">
         <v>44694</v>
       </c>
@@ -32590,7 +32590,7 @@
         <v>0.96340000000000003</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:12">
       <c r="A847" s="2">
         <v>44697</v>
       </c>
@@ -32628,7 +32628,7 @@
         <v>0.96150000000000002</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:12">
       <c r="A848" s="2">
         <v>44698</v>
       </c>
@@ -32666,7 +32666,7 @@
         <v>0.95789999999999997</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:12">
       <c r="A849" s="2">
         <v>44699</v>
       </c>
@@ -32704,7 +32704,7 @@
         <v>0.94810000000000005</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:12">
       <c r="A850" s="2">
         <v>44700</v>
       </c>
@@ -32742,7 +32742,7 @@
         <v>0.95489999999999997</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:12">
       <c r="A851" s="2">
         <v>44701</v>
       </c>
@@ -32780,7 +32780,7 @@
         <v>0.94530000000000003</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:12">
       <c r="A852" s="2">
         <v>44704</v>
       </c>
@@ -32818,7 +32818,7 @@
         <v>0.94610000000000005</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:12">
       <c r="A853" s="2">
         <v>44705</v>
       </c>
@@ -32856,7 +32856,7 @@
         <v>0.93620000000000003</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:12">
       <c r="A854" s="2">
         <v>44706</v>
       </c>
@@ -32894,7 +32894,7 @@
         <v>0.93140000000000001</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:12">
       <c r="A855" s="2">
         <v>44711</v>
       </c>
@@ -32932,7 +32932,7 @@
         <v>0.93179999999999996</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:12">
       <c r="A856" s="2">
         <v>44712</v>
       </c>
@@ -32970,7 +32970,7 @@
         <v>0.92820000000000003</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:12">
       <c r="A857" s="2">
         <v>44719</v>
       </c>
@@ -33008,7 +33008,7 @@
         <v>0.93530000000000002</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:12">
       <c r="A858" s="2">
         <v>44720</v>
       </c>
@@ -33046,7 +33046,7 @@
         <v>0.93415000000000004</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:12">
       <c r="A859" s="2">
         <v>44721</v>
       </c>
@@ -33084,7 +33084,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:12">
       <c r="A860" s="2">
         <v>44722</v>
       </c>
@@ -33122,7 +33122,7 @@
         <v>0.94169999999999998</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:12">
       <c r="A861" s="2">
         <v>44725</v>
       </c>
@@ -33160,7 +33160,7 @@
         <v>0.95330000000000004</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:12">
       <c r="A862" s="2">
         <v>44726</v>
       </c>
@@ -33198,7 +33198,7 @@
         <v>0.96009999999999995</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:12">
       <c r="A863" s="2">
         <v>44727</v>
       </c>
@@ -33236,7 +33236,7 @@
         <v>0.95779999999999998</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:12">
       <c r="A864" s="2">
         <v>44728</v>
       </c>
@@ -33274,7 +33274,7 @@
         <v>0.95640000000000003</v>
       </c>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:12">
       <c r="A865" s="2">
         <v>44729</v>
       </c>
@@ -33312,7 +33312,7 @@
         <v>0.94810000000000005</v>
       </c>
     </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:12">
       <c r="A866" s="2">
         <v>44732</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>0.95320000000000005</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:12">
       <c r="A867" s="2">
         <v>44733</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>0.95050000000000001</v>
       </c>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:12">
       <c r="A868" s="2">
         <v>44734</v>
       </c>
@@ -33426,7 +33426,7 @@
         <v>0.94940000000000002</v>
       </c>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:12">
       <c r="A869" s="2">
         <v>44735</v>
       </c>
@@ -33464,7 +33464,7 @@
         <v>0.9466</v>
       </c>
     </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:12">
       <c r="A870" s="2">
         <v>44736</v>
       </c>
@@ -33502,7 +33502,7 @@
         <v>0.9506</v>
       </c>
     </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:12">
       <c r="A871" s="2">
         <v>44739</v>
       </c>
@@ -33540,7 +33540,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:12">
       <c r="A872" s="2">
         <v>44740</v>
       </c>
@@ -33578,7 +33578,7 @@
         <v>0.94510000000000005</v>
       </c>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:12">
       <c r="A873" s="2">
         <v>44742</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>0.95720000000000005</v>
       </c>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:12">
       <c r="A874" s="2">
         <v>44743</v>
       </c>
@@ -33654,7 +33654,7 @@
         <v>0.95440000000000003</v>
       </c>
     </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:12">
       <c r="A875" s="2">
         <v>44746</v>
       </c>
@@ -33692,7 +33692,7 @@
         <v>0.95840000000000003</v>
       </c>
     </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:12">
       <c r="A876" s="2">
         <v>44747</v>
       </c>
@@ -33730,7 +33730,7 @@
         <v>0.95850000000000002</v>
       </c>
     </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:12">
       <c r="A877" s="2">
         <v>44748</v>
       </c>
@@ -33768,7 +33768,7 @@
         <v>0.97489999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:12">
       <c r="A878" s="2">
         <v>44749</v>
       </c>
@@ -33806,7 +33806,7 @@
         <v>0.98170000000000002</v>
       </c>
     </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:12">
       <c r="A879" s="2">
         <v>44750</v>
       </c>
@@ -33844,7 +33844,7 @@
         <v>0.98329999999999995</v>
       </c>
     </row>
-    <row r="880" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:12">
       <c r="A880" s="2">
         <v>44753</v>
       </c>
@@ -33882,7 +33882,7 @@
         <v>0.98370000000000002</v>
       </c>
     </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:12">
       <c r="A881" s="2">
         <v>44754</v>
       </c>
@@ -33920,7 +33920,7 @@
         <v>0.99529999999999996</v>
       </c>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:12">
       <c r="A882" s="2">
         <v>44756</v>
       </c>
@@ -33958,7 +33958,7 @@
         <v>0.99670000000000003</v>
       </c>
     </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:12">
       <c r="A883" s="2">
         <v>44757</v>
       </c>
@@ -33996,7 +33996,7 @@
         <v>0.99739999999999995</v>
       </c>
     </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:12">
       <c r="A884" s="2">
         <v>44760</v>
       </c>
@@ -34034,7 +34034,7 @@
         <v>0.99050000000000005</v>
       </c>
     </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:12">
       <c r="A885" s="2">
         <v>44761</v>
       </c>
@@ -34072,7 +34072,7 @@
         <v>0.98570000000000002</v>
       </c>
     </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:12">
       <c r="A886" s="2">
         <v>44762</v>
       </c>
@@ -34110,7 +34110,7 @@
         <v>0.97740000000000005</v>
       </c>
     </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:12">
       <c r="A887" s="2">
         <v>44763</v>
       </c>
@@ -34148,7 +34148,7 @@
         <v>0.98209999999999997</v>
       </c>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:12">
       <c r="A888" s="2">
         <v>44764</v>
       </c>
@@ -34186,7 +34186,7 @@
         <v>0.97840000000000005</v>
       </c>
     </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:12">
       <c r="A889" s="2">
         <v>44767</v>
       </c>
@@ -34224,7 +34224,7 @@
         <v>0.98040000000000005</v>
       </c>
     </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:12">
       <c r="A890" s="2">
         <v>44768</v>
       </c>
@@ -34262,7 +34262,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:12">
       <c r="A891" s="2">
         <v>44770</v>
       </c>
@@ -34300,7 +34300,7 @@
         <v>0.97950000000000004</v>
       </c>
     </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:12">
       <c r="A892" s="2">
         <v>44771</v>
       </c>
@@ -34338,7 +34338,7 @@
         <v>0.98109999999999997</v>
       </c>
     </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:12">
       <c r="A893" s="2">
         <v>44774</v>
       </c>
@@ -34376,7 +34376,7 @@
         <v>0.97960000000000003</v>
       </c>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:12">
       <c r="A894" s="2">
         <v>44775</v>
       </c>
@@ -34414,7 +34414,7 @@
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:12">
       <c r="A895" s="2">
         <v>44776</v>
       </c>
@@ -34452,7 +34452,7 @@
         <v>0.98470000000000002</v>
       </c>
     </row>
-    <row r="896" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:12">
       <c r="A896" s="2">
         <v>44777</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>0.98450000000000004</v>
       </c>
     </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:12">
       <c r="A897" s="2">
         <v>44778</v>
       </c>
@@ -34528,7 +34528,7 @@
         <v>0.9758</v>
       </c>
     </row>
-    <row r="898" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:12">
       <c r="A898" s="2">
         <v>44781</v>
       </c>
@@ -34566,7 +34566,7 @@
         <v>0.98319999999999996</v>
       </c>
     </row>
-    <row r="899" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:12">
       <c r="A899" s="2">
         <v>44782</v>
       </c>
@@ -34604,7 +34604,7 @@
         <v>0.98060000000000003</v>
       </c>
     </row>
-    <row r="900" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:12">
       <c r="A900" s="2">
         <v>44784</v>
       </c>
@@ -34642,7 +34642,7 @@
         <v>0.9708</v>
       </c>
     </row>
-    <row r="901" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:12">
       <c r="A901" s="2">
         <v>44785</v>
       </c>
@@ -34680,7 +34680,7 @@
         <v>0.96930000000000005</v>
       </c>
     </row>
-    <row r="902" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:12">
       <c r="A902" s="2">
         <v>44788</v>
       </c>
@@ -34718,7 +34718,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="903" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:12">
       <c r="A903" s="2">
         <v>44789</v>
       </c>
@@ -34756,7 +34756,7 @@
         <v>0.98409999999999997</v>
       </c>
     </row>
-    <row r="904" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:12">
       <c r="A904" s="2">
         <v>44790</v>
       </c>
@@ -34794,7 +34794,7 @@
         <v>0.98319999999999996</v>
       </c>
     </row>
-    <row r="905" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:12">
       <c r="A905" s="2">
         <v>44791</v>
       </c>
@@ -34832,7 +34832,7 @@
         <v>0.98229999999999995</v>
       </c>
     </row>
-    <row r="906" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:12">
       <c r="A906" s="2">
         <v>44792</v>
       </c>
@@ -34870,7 +34870,7 @@
         <v>0.99109999999999998</v>
       </c>
     </row>
-    <row r="907" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:12">
       <c r="A907" s="2">
         <v>44795</v>
       </c>
@@ -34908,7 +34908,7 @@
         <v>0.99650000000000005</v>
       </c>
     </row>
-    <row r="908" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:12">
       <c r="A908" s="2">
         <v>44796</v>
       </c>
@@ -34946,7 +34946,7 @@
         <v>1.0061</v>
       </c>
     </row>
-    <row r="909" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:12">
       <c r="A909" s="2">
         <v>44798</v>
       </c>
@@ -34984,7 +34984,7 @@
         <v>1.0031000000000001</v>
       </c>
     </row>
-    <row r="910" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:12">
       <c r="A910" s="2">
         <v>44799</v>
       </c>
@@ -35022,7 +35022,7 @@
         <v>1.0028999999999999</v>
       </c>
     </row>
-    <row r="911" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:12">
       <c r="A911" s="2">
         <v>44802</v>
       </c>
@@ -35060,7 +35060,7 @@
         <v>1.0062</v>
       </c>
     </row>
-    <row r="912" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:12">
       <c r="A912" s="2">
         <v>44803</v>
       </c>
@@ -35098,7 +35098,7 @@
         <v>0.99860000000000004</v>
       </c>
     </row>
-    <row r="913" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:12">
       <c r="A913" s="2">
         <v>44804</v>
       </c>
@@ -35136,7 +35136,7 @@
         <v>0.99750000000000005</v>
       </c>
     </row>
-    <row r="914" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:12">
       <c r="A914" s="2">
         <v>44805</v>
       </c>
@@ -35174,7 +35174,7 @@
         <v>0.99609999999999999</v>
       </c>
     </row>
-    <row r="915" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:12">
       <c r="A915" s="2">
         <v>44806</v>
       </c>
@@ -35212,7 +35212,7 @@
         <v>1.0047999999999999</v>
       </c>
     </row>
-    <row r="916" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:12">
       <c r="A916" s="2">
         <v>44809</v>
       </c>
@@ -35250,7 +35250,7 @@
         <v>1.0091000000000001</v>
       </c>
     </row>
-    <row r="917" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:12">
       <c r="A917" s="2">
         <v>44810</v>
       </c>
@@ -35288,7 +35288,7 @@
         <v>1.0047999999999999</v>
       </c>
     </row>
-    <row r="918" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:12">
       <c r="A918" s="2">
         <v>44811</v>
       </c>
@@ -35326,7 +35326,7 @@
         <v>1.0103</v>
       </c>
     </row>
-    <row r="919" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:12">
       <c r="A919" s="2">
         <v>44813</v>
       </c>
@@ -35364,7 +35364,7 @@
         <v>0.99880000000000002</v>
       </c>
     </row>
-    <row r="920" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:12">
       <c r="A920" s="2">
         <v>44816</v>
       </c>
@@ -35402,7 +35402,7 @@
         <v>0.9929</v>
       </c>
     </row>
-    <row r="921" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:12">
       <c r="A921" s="2">
         <v>44817</v>
       </c>
@@ -35440,7 +35440,7 @@
         <v>0.98719999999999997</v>
       </c>
     </row>
-    <row r="922" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:12">
       <c r="A922" s="2">
         <v>44818</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>0.99439999999999995</v>
       </c>
     </row>
-    <row r="923" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:12">
       <c r="A923" s="2">
         <v>44819</v>
       </c>
@@ -35516,7 +35516,7 @@
         <v>1.0016</v>
       </c>
     </row>
-    <row r="924" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:12">
       <c r="A924" s="2">
         <v>44820</v>
       </c>
@@ -35554,7 +35554,7 @@
         <v>1.0012000000000001</v>
       </c>
     </row>
-    <row r="925" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:12">
       <c r="A925" s="2">
         <v>44823</v>
       </c>
@@ -35592,7 +35592,7 @@
         <v>0.99780000000000002</v>
       </c>
     </row>
-    <row r="926" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:12">
       <c r="A926" s="2">
         <v>44824</v>
       </c>
@@ -35630,7 +35630,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="927" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:12">
       <c r="A927" s="2">
         <v>44825</v>
       </c>
@@ -35668,7 +35668,7 @@
         <v>1.0028999999999999</v>
       </c>
     </row>
-    <row r="928" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:12">
       <c r="A928" s="2">
         <v>44826</v>
       </c>
@@ -35706,7 +35706,7 @@
         <v>1.0172000000000001</v>
       </c>
     </row>
-    <row r="929" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:12">
       <c r="A929" s="2">
         <v>44827</v>
       </c>
@@ -35744,7 +35744,7 @@
         <v>1.0161</v>
       </c>
     </row>
-    <row r="930" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:12">
       <c r="A930" s="2">
         <v>44830</v>
       </c>
@@ -35782,7 +35782,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="931" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:12">
       <c r="A931" s="2">
         <v>44831</v>
       </c>
@@ -35820,7 +35820,7 @@
         <v>1.0390999999999999</v>
       </c>
     </row>
-    <row r="932" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:12">
       <c r="A932" s="2">
         <v>44832</v>
       </c>
@@ -35858,7 +35858,7 @@
         <v>1.0421</v>
       </c>
     </row>
-    <row r="933" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:12">
       <c r="A933" s="2">
         <v>44833</v>
       </c>
@@ -35896,7 +35896,7 @@
         <v>1.0301</v>
       </c>
     </row>
-    <row r="934" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:12">
       <c r="A934" s="2">
         <v>44834</v>
       </c>
@@ -35934,7 +35934,7 @@
         <v>1.0173000000000001</v>
       </c>
     </row>
-    <row r="935" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:12">
       <c r="A935" s="2">
         <v>44837</v>
       </c>
@@ -35972,7 +35972,7 @@
         <v>1.0212000000000001</v>
       </c>
     </row>
-    <row r="936" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:12">
       <c r="A936" s="2">
         <v>44838</v>
       </c>
@@ -36010,7 +36010,7 @@
         <v>1.0170999999999999</v>
       </c>
     </row>
-    <row r="937" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:12">
       <c r="A937" s="2">
         <v>44840</v>
       </c>
@@ -36048,7 +36048,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="938" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:12">
       <c r="A938" s="2">
         <v>44841</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>1.0216000000000001</v>
       </c>
     </row>
-    <row r="939" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:12">
       <c r="A939" s="2">
         <v>44844</v>
       </c>
@@ -36124,7 +36124,7 @@
         <v>1.0271999999999999</v>
       </c>
     </row>
-    <row r="940" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:12">
       <c r="A940" s="2">
         <v>44845</v>
       </c>
@@ -36162,7 +36162,7 @@
         <v>1.0299</v>
       </c>
     </row>
-    <row r="941" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:12">
       <c r="A941" s="2">
         <v>44846</v>
       </c>
@@ -36200,7 +36200,7 @@
         <v>1.0308999999999999</v>
       </c>
     </row>
-    <row r="942" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:12">
       <c r="A942" s="2">
         <v>44847</v>
       </c>
@@ -36238,7 +36238,7 @@
         <v>1.0301</v>
       </c>
     </row>
-    <row r="943" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:12">
       <c r="A943" s="2">
         <v>44848</v>
       </c>
@@ -36276,7 +36276,7 @@
         <v>1.0255000000000001</v>
       </c>
     </row>
-    <row r="944" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:12">
       <c r="A944" s="2">
         <v>44851</v>
       </c>
@@ -36314,7 +36314,7 @@
         <v>1.0267999999999999</v>
       </c>
     </row>
-    <row r="945" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:12">
       <c r="A945" s="2">
         <v>44852</v>
       </c>
@@ -36352,7 +36352,7 @@
         <v>1.0156000000000001</v>
       </c>
     </row>
-    <row r="946" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:12">
       <c r="A946" s="2">
         <v>44853</v>
       </c>
@@ -36390,7 +36390,7 @@
         <v>1.0138</v>
       </c>
     </row>
-    <row r="947" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:12">
       <c r="A947" s="2">
         <v>44854</v>
       </c>
@@ -36428,7 +36428,7 @@
         <v>1.0239</v>
       </c>
     </row>
-    <row r="948" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:12">
       <c r="A948" s="2">
         <v>44855</v>
       </c>
@@ -36466,7 +36466,7 @@
         <v>1.0226</v>
       </c>
     </row>
-    <row r="949" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:12">
       <c r="A949" s="2">
         <v>44858</v>
       </c>
@@ -36504,7 +36504,7 @@
         <v>1.0142</v>
       </c>
     </row>
-    <row r="950" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:12">
       <c r="A950" s="2">
         <v>44859</v>
       </c>
@@ -36542,7 +36542,7 @@
         <v>1.0115000000000001</v>
       </c>
     </row>
-    <row r="951" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:12">
       <c r="A951" s="2">
         <v>44860</v>
       </c>
@@ -36580,7 +36580,7 @@
         <v>1.0036</v>
       </c>
     </row>
-    <row r="952" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:12">
       <c r="A952" s="2">
         <v>44861</v>
       </c>
@@ -36618,7 +36618,7 @@
         <v>0.9909</v>
       </c>
     </row>
-    <row r="953" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:12">
       <c r="A953" s="2">
         <v>44862</v>
       </c>
@@ -36656,7 +36656,7 @@
         <v>1.0032000000000001</v>
       </c>
     </row>
-    <row r="954" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:12">
       <c r="A954" s="2">
         <v>44865</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>1.0044999999999999</v>
       </c>
     </row>
-    <row r="955" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:12">
       <c r="A955" s="2">
         <v>44866</v>
       </c>
@@ -36732,7 +36732,7 @@
         <v>1.0115000000000001</v>
       </c>
     </row>
-    <row r="956" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:12">
       <c r="A956" s="2">
         <v>44868</v>
       </c>
@@ -36770,7 +36770,7 @@
         <v>1.0188999999999999</v>
       </c>
     </row>
-    <row r="957" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:12">
       <c r="A957" s="2">
         <v>44869</v>
       </c>
@@ -36808,7 +36808,7 @@
         <v>1.0257000000000001</v>
       </c>
     </row>
-    <row r="958" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:12">
       <c r="A958" s="2">
         <v>44872</v>
       </c>
@@ -36846,7 +36846,7 @@
         <v>1.0072000000000001</v>
       </c>
     </row>
-    <row r="959" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:12">
       <c r="A959" s="2">
         <v>44873</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>0.99809999999999999</v>
       </c>
     </row>
-    <row r="960" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:12">
       <c r="A960" s="2">
         <v>44874</v>
       </c>
@@ -36922,7 +36922,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="961" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:12">
       <c r="A961" s="2">
         <v>44875</v>
       </c>
@@ -36960,7 +36960,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="962" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:12">
       <c r="A962" s="2">
         <v>44876</v>
       </c>
@@ -36998,7 +36998,7 @@
         <v>0.98109999999999997</v>
       </c>
     </row>
-    <row r="963" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:12">
       <c r="A963" s="2">
         <v>44879</v>
       </c>
@@ -37036,7 +37036,7 @@
         <v>0.96819999999999995</v>
       </c>
     </row>
-    <row r="964" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:12">
       <c r="A964" s="2">
         <v>44880</v>
       </c>
@@ -37074,7 +37074,7 @@
         <v>0.96909999999999996</v>
       </c>
     </row>
-    <row r="965" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:12">
       <c r="A965" s="2">
         <v>44881</v>
       </c>
@@ -37112,7 +37112,7 @@
         <v>0.96540000000000004</v>
       </c>
     </row>
-    <row r="966" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:12">
       <c r="A966" s="2">
         <v>44882</v>
       </c>
@@ -37150,7 +37150,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="967" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:12">
       <c r="A967" s="2">
         <v>44883</v>
       </c>
@@ -37188,7 +37188,7 @@
         <v>0.96509999999999996</v>
       </c>
     </row>
-    <row r="968" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:12">
       <c r="A968" s="2">
         <v>44886</v>
       </c>
@@ -37226,7 +37226,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="969" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:12">
       <c r="A969" s="2">
         <v>44887</v>
       </c>
@@ -37264,7 +37264,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="970" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:12">
       <c r="A970" s="2">
         <v>44888</v>
       </c>
@@ -37302,7 +37302,7 @@
         <v>0.9698</v>
       </c>
     </row>
-    <row r="971" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:12">
       <c r="A971" s="2">
         <v>44889</v>
       </c>
@@ -37340,7 +37340,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="972" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:12">
       <c r="A972" s="2">
         <v>44890</v>
       </c>
@@ -37378,7 +37378,7 @@
         <v>0.96079999999999999</v>
       </c>
     </row>
-    <row r="973" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:12">
       <c r="A973" s="2">
         <v>44893</v>
       </c>
@@ -37416,7 +37416,7 @@
         <v>0.96460000000000001</v>
       </c>
     </row>
-    <row r="974" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:12">
       <c r="A974" s="2">
         <v>44894</v>
       </c>
@@ -37454,7 +37454,7 @@
         <v>0.96660000000000001</v>
       </c>
     </row>
-    <row r="975" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:12">
       <c r="A975" s="2">
         <v>44896</v>
       </c>
@@ -37492,7 +37492,7 @@
         <v>0.95920000000000005</v>
       </c>
     </row>
-    <row r="976" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:12">
       <c r="A976" s="2">
         <v>44897</v>
       </c>
@@ -37530,7 +37530,7 @@
         <v>0.94979999999999998</v>
       </c>
     </row>
-    <row r="977" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:12">
       <c r="A977" s="2">
         <v>44900</v>
       </c>
@@ -37568,7 +37568,7 @@
         <v>0.94840000000000002</v>
       </c>
     </row>
-    <row r="978" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:12">
       <c r="A978" s="2">
         <v>44901</v>
       </c>
@@ -37606,7 +37606,7 @@
         <v>0.95269999999999999</v>
       </c>
     </row>
-    <row r="979" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:12">
       <c r="A979" s="2">
         <v>44902</v>
       </c>
@@ -37644,7 +37644,7 @@
         <v>0.95520000000000005</v>
       </c>
     </row>
-    <row r="980" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:12">
       <c r="A980" s="2">
         <v>44903</v>
       </c>
@@ -37682,7 +37682,7 @@
         <v>0.95120000000000005</v>
       </c>
     </row>
-    <row r="981" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:12">
       <c r="A981" s="2">
         <v>44904</v>
       </c>
@@ -37720,7 +37720,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="982" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:12">
       <c r="A982" s="2">
         <v>44907</v>
       </c>
@@ -37758,7 +37758,7 @@
         <v>0.95040000000000002</v>
       </c>
     </row>
-    <row r="983" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:12">
       <c r="A983" s="2">
         <v>44908</v>
       </c>
@@ -37796,7 +37796,7 @@
         <v>0.9486</v>
       </c>
     </row>
-    <row r="984" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:12">
       <c r="A984" s="2">
         <v>44910</v>
       </c>
@@ -37834,7 +37834,7 @@
         <v>0.93659999999999999</v>
       </c>
     </row>
-    <row r="985" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:12">
       <c r="A985" s="2">
         <v>44911</v>
       </c>
@@ -37872,7 +37872,7 @@
         <v>0.93979999999999997</v>
       </c>
     </row>
-    <row r="986" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:12">
       <c r="A986" s="2">
         <v>44914</v>
       </c>
@@ -37910,7 +37910,7 @@
         <v>0.94469999999999998</v>
       </c>
     </row>
-    <row r="987" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:12">
       <c r="A987" s="2">
         <v>44935</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>0.93840000000000001</v>
       </c>
     </row>
-    <row r="988" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:12">
       <c r="A988" s="2">
         <v>44936</v>
       </c>
@@ -37986,7 +37986,7 @@
         <v>0.93359999999999999</v>
       </c>
     </row>
-    <row r="989" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:12">
       <c r="A989" s="2">
         <v>44938</v>
       </c>
@@ -38024,7 +38024,7 @@
         <v>0.92879999999999996</v>
       </c>
     </row>
-    <row r="990" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:12">
       <c r="A990" s="2">
         <v>44939</v>
       </c>
@@ -38062,7 +38062,7 @@
         <v>0.92079999999999995</v>
       </c>
     </row>
-    <row r="991" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:12">
       <c r="A991" s="2">
         <v>44942</v>
       </c>
@@ -38100,7 +38100,7 @@
         <v>0.92379999999999995</v>
       </c>
     </row>
-    <row r="992" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:12">
       <c r="A992" s="2">
         <v>44943</v>
       </c>
@@ -38138,7 +38138,7 @@
         <v>0.92330000000000001</v>
       </c>
     </row>
-    <row r="993" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:12">
       <c r="A993" s="2">
         <v>44944</v>
       </c>
@@ -38176,7 +38176,7 @@
         <v>0.92649999999999999</v>
       </c>
     </row>
-    <row r="994" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:12">
       <c r="A994" s="2">
         <v>44945</v>
       </c>
@@ -38214,7 +38214,7 @@
         <v>0.92610000000000003</v>
       </c>
     </row>
-    <row r="995" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:12">
       <c r="A995" s="2">
         <v>44946</v>
       </c>
@@ -38252,7 +38252,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="996" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:12">
       <c r="A996" s="2">
         <v>44949</v>
       </c>
@@ -38290,7 +38290,7 @@
         <v>0.9204</v>
       </c>
     </row>
-    <row r="997" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:12">
       <c r="A997" s="2">
         <v>44950</v>
       </c>
@@ -38328,7 +38328,7 @@
         <v>0.91959999999999997</v>
       </c>
     </row>
-    <row r="998" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:12">
       <c r="A998" s="2">
         <v>44951</v>
       </c>
@@ -38366,7 +38366,7 @@
         <v>0.91839999999999999</v>
       </c>
     </row>
-    <row r="999" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:12">
       <c r="A999" s="2">
         <v>44952</v>
       </c>
@@ -38404,7 +38404,7 @@
         <v>0.91559999999999997</v>
       </c>
     </row>
-    <row r="1000" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:12">
       <c r="A1000" s="2">
         <v>44953</v>
       </c>
@@ -38442,7 +38442,7 @@
         <v>0.91790000000000005</v>
       </c>
     </row>
-    <row r="1001" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:12">
       <c r="A1001" s="2">
         <v>44956</v>
       </c>
@@ -38480,7 +38480,7 @@
         <v>0.91979999999999995</v>
       </c>
     </row>
-    <row r="1002" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:12">
       <c r="A1002" s="2">
         <v>44957</v>
       </c>
@@ -38518,7 +38518,7 @@
         <v>0.92159999999999997</v>
       </c>
     </row>
-    <row r="1003" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:12">
       <c r="A1003" s="2">
         <v>44958</v>
       </c>
@@ -38556,7 +38556,7 @@
         <v>0.92069999999999996</v>
       </c>
     </row>
-    <row r="1004" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:12">
       <c r="A1004" s="2">
         <v>44959</v>
       </c>
@@ -38594,7 +38594,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="1005" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:12">
       <c r="A1005" s="2">
         <v>44960</v>
       </c>
@@ -38632,7 +38632,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="1006" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:12">
       <c r="A1006" s="2">
         <v>44963</v>
       </c>
@@ -38670,7 +38670,7 @@
         <v>0.92669999999999997</v>
       </c>
     </row>
-    <row r="1007" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:12">
       <c r="A1007" s="2">
         <v>44964</v>
       </c>
@@ -38708,7 +38708,7 @@
         <v>0.93189999999999995</v>
       </c>
     </row>
-    <row r="1008" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:12">
       <c r="A1008" s="2">
         <v>44966</v>
       </c>
@@ -38746,7 +38746,7 @@
         <v>0.93320000000000003</v>
       </c>
     </row>
-    <row r="1009" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:12">
       <c r="A1009" s="2">
         <v>44967</v>
       </c>
@@ -38784,7 +38784,7 @@
         <v>0.93089999999999995</v>
       </c>
     </row>
-    <row r="1010" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:12">
       <c r="A1010" s="2">
         <v>44970</v>
       </c>
@@ -38822,7 +38822,7 @@
         <v>0.9365</v>
       </c>
     </row>
-    <row r="1011" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:12">
       <c r="A1011" s="2">
         <v>44971</v>
       </c>
@@ -38860,7 +38860,7 @@
         <v>0.93189999999999995</v>
       </c>
     </row>
-    <row r="1012" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:12">
       <c r="A1012" s="2">
         <v>44972</v>
       </c>
@@ -38898,7 +38898,7 @@
         <v>0.93149999999999999</v>
       </c>
     </row>
-    <row r="1013" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:12">
       <c r="A1013" s="2">
         <v>44973</v>
       </c>
@@ -38936,7 +38936,7 @@
         <v>0.93530000000000002</v>
       </c>
     </row>
-    <row r="1014" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:12">
       <c r="A1014" s="2">
         <v>44974</v>
       </c>
@@ -38974,7 +38974,7 @@
         <v>0.93759999999999999</v>
       </c>
     </row>
-    <row r="1015" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:12">
       <c r="A1015" s="2">
         <v>44977</v>
       </c>
@@ -39012,7 +39012,7 @@
         <v>0.93589999999999995</v>
       </c>
     </row>
-    <row r="1016" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:12">
       <c r="A1016" s="2">
         <v>44978</v>
       </c>
@@ -39050,7 +39050,7 @@
         <v>0.93610000000000004</v>
       </c>
     </row>
-    <row r="1017" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:12">
       <c r="A1017" s="2">
         <v>44980</v>
       </c>
@@ -39088,7 +39088,7 @@
         <v>0.94289999999999996</v>
       </c>
     </row>
-    <row r="1018" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:12">
       <c r="A1018" s="2">
         <v>44981</v>
       </c>
@@ -39126,7 +39126,7 @@
         <v>0.94359999999999999</v>
       </c>
     </row>
-    <row r="1019" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:12">
       <c r="A1019" s="2">
         <v>44984</v>
       </c>
@@ -39164,7 +39164,7 @@
         <v>0.94740000000000002</v>
       </c>
     </row>
-    <row r="1020" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:12">
       <c r="A1020" s="2">
         <v>44985</v>
       </c>
@@ -39202,7 +39202,7 @@
         <v>0.94240000000000002</v>
       </c>
     </row>
-    <row r="1021" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:12">
       <c r="A1021" s="2">
         <v>44986</v>
       </c>
@@ -39240,7 +39240,7 @@
         <v>0.94540000000000002</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:12">
       <c r="A1022" s="2">
         <v>44987</v>
       </c>
@@ -39278,7 +39278,7 @@
         <v>0.93730000000000002</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:12">
       <c r="A1023" s="2">
         <v>44988</v>
       </c>
@@ -39316,7 +39316,7 @@
         <v>0.94340000000000002</v>
       </c>
     </row>
-    <row r="1024" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:12">
       <c r="A1024" s="2">
         <v>44991</v>
       </c>
@@ -39354,7 +39354,7 @@
         <v>0.94110000000000005</v>
       </c>
     </row>
-    <row r="1025" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:12">
       <c r="A1025" s="2">
         <v>44992</v>
       </c>
@@ -39392,7 +39392,7 @@
         <v>0.93559999999999999</v>
       </c>
     </row>
-    <row r="1026" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:12">
       <c r="A1026" s="2">
         <v>44994</v>
       </c>
@@ -39430,7 +39430,7 @@
         <v>0.94789999999999996</v>
       </c>
     </row>
-    <row r="1027" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:12">
       <c r="A1027" s="2">
         <v>44995</v>
       </c>
@@ -39468,7 +39468,7 @@
         <v>0.94479999999999997</v>
       </c>
     </row>
-    <row r="1028" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:12">
       <c r="A1028" s="2">
         <v>44998</v>
       </c>
@@ -39506,7 +39506,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="1029" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:12">
       <c r="A1029" s="2">
         <v>44999</v>
       </c>
@@ -39544,7 +39544,7 @@
         <v>0.93240000000000001</v>
       </c>
     </row>
-    <row r="1030" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:12">
       <c r="A1030" s="2">
         <v>45000</v>
       </c>
@@ -39582,7 +39582,7 @@
         <v>0.93220000000000003</v>
       </c>
     </row>
-    <row r="1031" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:12">
       <c r="A1031" s="2">
         <v>45001</v>
       </c>
@@ -39620,7 +39620,7 @@
         <v>0.94489999999999996</v>
       </c>
     </row>
-    <row r="1032" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:12">
       <c r="A1032" s="2">
         <v>45002</v>
       </c>
@@ -39658,7 +39658,7 @@
         <v>0.94210000000000005</v>
       </c>
     </row>
-    <row r="1033" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:12">
       <c r="A1033" s="2">
         <v>45005</v>
       </c>
@@ -39696,7 +39696,7 @@
         <v>0.93640000000000001</v>
       </c>
     </row>
-    <row r="1034" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:12">
       <c r="A1034" s="2">
         <v>45006</v>
       </c>
@@ -39734,7 +39734,7 @@
         <v>0.93289999999999995</v>
       </c>
     </row>
-    <row r="1035" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:12">
       <c r="A1035" s="2">
         <v>45007</v>
       </c>
@@ -39772,7 +39772,7 @@
         <v>0.92810000000000004</v>
       </c>
     </row>
-    <row r="1036" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:12">
       <c r="A1036" s="2">
         <v>45008</v>
       </c>
@@ -39810,7 +39810,7 @@
         <v>0.91990000000000005</v>
       </c>
     </row>
-    <row r="1037" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:12">
       <c r="A1037" s="2">
         <v>45009</v>
       </c>
@@ -39848,7 +39848,7 @@
         <v>0.92290000000000005</v>
       </c>
     </row>
-    <row r="1038" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:12">
       <c r="A1038" s="2">
         <v>45012</v>
       </c>
@@ -39886,7 +39886,7 @@
         <v>0.92779999999999996</v>
       </c>
     </row>
-    <row r="1039" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:12">
       <c r="A1039" s="2">
         <v>45013</v>
       </c>
@@ -39924,7 +39924,7 @@
         <v>0.92530000000000001</v>
       </c>
     </row>
-    <row r="1040" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:12">
       <c r="A1040" s="2">
         <v>45014</v>
       </c>
@@ -39962,7 +39962,7 @@
         <v>0.92259999999999998</v>
       </c>
     </row>
-    <row r="1041" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:12">
       <c r="A1041" s="2">
         <v>45015</v>
       </c>
@@ -40000,7 +40000,7 @@
         <v>0.92220000000000002</v>
       </c>
     </row>
-    <row r="1042" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:12">
       <c r="A1042" s="2">
         <v>45016</v>
       </c>
@@ -40038,7 +40038,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="1043" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:12">
       <c r="A1043" s="2">
         <v>45019</v>
       </c>
@@ -40076,7 +40076,7 @@
         <v>0.92559999999999998</v>
       </c>
     </row>
-    <row r="1044" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:12">
       <c r="A1044" s="2">
         <v>45020</v>
       </c>
@@ -40114,7 +40114,7 @@
         <v>0.91639999999999999</v>
       </c>
     </row>
-    <row r="1045" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:12">
       <c r="A1045" s="2">
         <v>45022</v>
       </c>
@@ -40152,7 +40152,7 @@
         <v>0.91720000000000002</v>
       </c>
     </row>
-    <row r="1046" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:12">
       <c r="A1046" s="2">
         <v>45027</v>
       </c>
@@ -40190,7 +40190,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="1047" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:12">
       <c r="A1047" s="2">
         <v>45028</v>
       </c>
@@ -40228,7 +40228,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="1048" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:12">
       <c r="A1048" s="2">
         <v>45029</v>
       </c>
@@ -40266,7 +40266,7 @@
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="1049" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:12">
       <c r="A1049" s="2">
         <v>45030</v>
       </c>
@@ -40304,7 +40304,7 @@
         <v>0.90459999999999996</v>
       </c>
     </row>
-    <row r="1050" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:12">
       <c r="A1050" s="2">
         <v>45033</v>
       </c>
@@ -40342,7 +40342,7 @@
         <v>0.91020000000000001</v>
       </c>
     </row>
-    <row r="1051" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:12">
       <c r="A1051" s="2">
         <v>45034</v>
       </c>
@@ -40380,7 +40380,7 @@
         <v>0.9153</v>
       </c>
     </row>
-    <row r="1052" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:12">
       <c r="A1052" s="2">
         <v>45036</v>
       </c>
@@ -40418,7 +40418,7 @@
         <v>0.91310000000000002</v>
       </c>
     </row>
-    <row r="1053" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:12">
       <c r="A1053" s="2">
         <v>45037</v>
       </c>
@@ -40456,7 +40456,7 @@
         <v>0.91149999999999998</v>
       </c>
     </row>
-    <row r="1054" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:12">
       <c r="A1054" s="2">
         <v>45040</v>
       </c>
@@ -40494,7 +40494,7 @@
         <v>0.90969999999999995</v>
       </c>
     </row>
-    <row r="1055" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:12">
       <c r="A1055" s="2">
         <v>45041</v>
       </c>
@@ -40532,7 +40532,7 @@
         <v>0.9042</v>
       </c>
     </row>
-    <row r="1056" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:12">
       <c r="A1056" s="2">
         <v>45042</v>
       </c>
@@ -40570,7 +40570,7 @@
         <v>0.91090000000000004</v>
       </c>
     </row>
-    <row r="1057" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:12">
       <c r="A1057" s="2">
         <v>45043</v>
       </c>
@@ -40608,7 +40608,7 @@
         <v>0.9052</v>
       </c>
     </row>
-    <row r="1058" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:12">
       <c r="A1058" s="2">
         <v>45044</v>
       </c>
@@ -40646,7 +40646,7 @@
         <v>0.90639999999999998</v>
       </c>
     </row>
-    <row r="1059" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:12">
       <c r="A1059" s="2">
         <v>45048</v>
       </c>
@@ -40684,7 +40684,7 @@
         <v>0.91159999999999997</v>
       </c>
     </row>
-    <row r="1060" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:12">
       <c r="A1060" s="2">
         <v>45050</v>
       </c>
@@ -40722,7 +40722,7 @@
         <v>0.90339999999999998</v>
       </c>
     </row>
-    <row r="1061" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:12">
       <c r="A1061" s="2">
         <v>45051</v>
       </c>
@@ -40760,7 +40760,7 @@
         <v>0.90720000000000001</v>
       </c>
     </row>
-    <row r="1062" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:12">
       <c r="A1062" s="2">
         <v>45054</v>
       </c>
@@ -40798,7 +40798,7 @@
         <v>0.90749999999999997</v>
       </c>
     </row>
-    <row r="1063" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:12">
       <c r="A1063" s="2">
         <v>45055</v>
       </c>
@@ -40836,7 +40836,7 @@
         <v>0.90939999999999999</v>
       </c>
     </row>
-    <row r="1064" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:12">
       <c r="A1064" s="2">
         <v>45056</v>
       </c>
@@ -40874,7 +40874,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="1065" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:12">
       <c r="A1065" s="2">
         <v>45057</v>
       </c>
@@ -40912,7 +40912,7 @@
         <v>0.91039999999999999</v>
       </c>
     </row>
-    <row r="1066" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:12">
       <c r="A1066" s="2">
         <v>45058</v>
       </c>
@@ -40950,7 +40950,7 @@
         <v>0.91639999999999999</v>
       </c>
     </row>
-    <row r="1067" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:12">
       <c r="A1067" s="2">
         <v>45061</v>
       </c>
@@ -40988,7 +40988,7 @@
         <v>0.9214</v>
       </c>
     </row>
-    <row r="1068" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:12">
       <c r="A1068" s="2">
         <v>45062</v>
       </c>
@@ -41026,7 +41026,7 @@
         <v>0.91969999999999996</v>
       </c>
     </row>
-    <row r="1069" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:12">
       <c r="A1069" s="2">
         <v>45063</v>
       </c>
@@ -41064,7 +41064,7 @@
         <v>0.92030000000000001</v>
       </c>
     </row>
-    <row r="1070" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:12">
       <c r="A1070" s="2">
         <v>45068</v>
       </c>
@@ -41102,7 +41102,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="1071" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:12">
       <c r="A1071" s="2">
         <v>45069</v>
       </c>
@@ -41140,7 +41140,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="1072" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:12">
       <c r="A1072" s="2">
         <v>45070</v>
       </c>
@@ -41178,7 +41178,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="1073" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:12">
       <c r="A1073" s="2">
         <v>45071</v>
       </c>
@@ -41216,7 +41216,7 @@
         <v>0.92959999999999998</v>
       </c>
     </row>
-    <row r="1074" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:12">
       <c r="A1074" s="2">
         <v>45072</v>
       </c>
@@ -41254,7 +41254,7 @@
         <v>0.93240000000000001</v>
       </c>
     </row>
-    <row r="1075" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:12">
       <c r="A1075" s="2">
         <v>45076</v>
       </c>
